--- a/Excel/内閣支持率.xlsx
+++ b/Excel/内閣支持率.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B8BB4-7C6C-4A26-B8E2-62083721E9C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576664C3-D946-4973-A501-9FA489172639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="373">
   <si>
     <t>安倍内閣支持率</t>
     <rPh sb="0" eb="2">
@@ -1292,12 +1292,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,6 +1320,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
@@ -1439,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1464,6 +1480,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1502,7 +1528,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1515,10 +1541,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1" i="0"/>
               <a:t>内閣支持率</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" b="1" i="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1535,7 +1561,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1553,13 +1579,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2924273101539614E-2"/>
+          <c:y val="0.13261416239555235"/>
+          <c:w val="0.95626007413287595"/>
+          <c:h val="0.65259797636098416"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>支持率</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1574,7 +1613,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$BT$3</c:f>
+              <c:f>Sheet1!$D$3:$BS$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="68"/>
@@ -1787,7 +1826,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$BT$4</c:f>
+              <c:f>Sheet1!$D$4:$BS$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2008,6 +2047,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>不支持率</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2022,7 +2064,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$BT$3</c:f>
+              <c:f>Sheet1!$D$3:$BS$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2235,7 +2277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$BT$5</c:f>
+              <c:f>Sheet1!$D$5:$BS$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
@@ -2494,7 +2536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2740,7 +2782,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$BT$3</c:f>
+              <c:f>Sheet1!$E$3:$BS$3</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="67"/>
@@ -2950,7 +2992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$BT$6</c:f>
+              <c:f>Sheet1!$E$6:$BS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -3441,7 +3483,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Sheet1!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3462,7 +3504,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3483,7 +3525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
+              <c:f>Sheet1!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3504,7 +3546,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3525,7 +3567,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$3</c:f>
+              <c:f>Sheet1!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3546,7 +3588,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>Sheet1!$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3567,7 +3609,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
+              <c:f>Sheet1!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3588,7 +3630,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>Sheet1!$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3609,7 +3651,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$3</c:f>
+              <c:f>Sheet1!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3630,7 +3672,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3651,7 +3693,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$3</c:f>
+              <c:f>Sheet1!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3672,7 +3714,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$6</c:f>
+              <c:f>Sheet1!$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3693,7 +3735,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$3</c:f>
+              <c:f>Sheet1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3716,7 +3758,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$6</c:f>
+              <c:f>Sheet1!$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3737,7 +3779,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$3</c:f>
+              <c:f>Sheet1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3760,7 +3802,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6</c:f>
+              <c:f>Sheet1!$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3781,7 +3823,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3</c:f>
+              <c:f>Sheet1!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3804,7 +3846,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6</c:f>
+              <c:f>Sheet1!$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3825,7 +3867,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$3</c:f>
+              <c:f>Sheet1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3848,7 +3890,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$6</c:f>
+              <c:f>Sheet1!$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3869,7 +3911,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$3</c:f>
+              <c:f>Sheet1!$O$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3892,7 +3934,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6</c:f>
+              <c:f>Sheet1!$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3913,7 +3955,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$3</c:f>
+              <c:f>Sheet1!$P$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3936,7 +3978,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6</c:f>
+              <c:f>Sheet1!$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3957,7 +3999,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$3</c:f>
+              <c:f>Sheet1!$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3981,7 +4023,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$6</c:f>
+              <c:f>Sheet1!$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4002,7 +4044,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$3</c:f>
+              <c:f>Sheet1!$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4026,7 +4068,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$6</c:f>
+              <c:f>Sheet1!$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4047,7 +4089,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$3</c:f>
+              <c:f>Sheet1!$S$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4071,7 +4113,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$6</c:f>
+              <c:f>Sheet1!$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4092,7 +4134,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$3</c:f>
+              <c:f>Sheet1!$T$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4116,7 +4158,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$6</c:f>
+              <c:f>Sheet1!$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4137,7 +4179,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$3</c:f>
+              <c:f>Sheet1!$U$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4161,7 +4203,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$6</c:f>
+              <c:f>Sheet1!$U$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4182,7 +4224,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$3</c:f>
+              <c:f>Sheet1!$V$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4206,7 +4248,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$6</c:f>
+              <c:f>Sheet1!$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4227,7 +4269,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$3</c:f>
+              <c:f>Sheet1!$W$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4250,7 +4292,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$6</c:f>
+              <c:f>Sheet1!$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4271,7 +4313,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Y$3</c:f>
+              <c:f>Sheet1!$X$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4294,7 +4336,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$6</c:f>
+              <c:f>Sheet1!$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4315,7 +4357,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$3</c:f>
+              <c:f>Sheet1!$Y$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4338,7 +4380,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$6</c:f>
+              <c:f>Sheet1!$Y$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4359,7 +4401,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$3</c:f>
+              <c:f>Sheet1!$Z$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4382,7 +4424,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$6</c:f>
+              <c:f>Sheet1!$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4403,7 +4445,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AB$3</c:f>
+              <c:f>Sheet1!$AA$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4426,7 +4468,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AB$6</c:f>
+              <c:f>Sheet1!$AA$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4447,7 +4489,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$3</c:f>
+              <c:f>Sheet1!$AB$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4470,7 +4512,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$6</c:f>
+              <c:f>Sheet1!$AB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4491,7 +4533,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$3</c:f>
+              <c:f>Sheet1!$AC$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4515,7 +4557,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$6</c:f>
+              <c:f>Sheet1!$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4536,7 +4578,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$3</c:f>
+              <c:f>Sheet1!$AD$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4560,7 +4602,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$6</c:f>
+              <c:f>Sheet1!$AD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4581,7 +4623,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$3</c:f>
+              <c:f>Sheet1!$AE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4605,7 +4647,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$6</c:f>
+              <c:f>Sheet1!$AE$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4626,7 +4668,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$3</c:f>
+              <c:f>Sheet1!$AF$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4650,7 +4692,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$6</c:f>
+              <c:f>Sheet1!$AF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4671,7 +4713,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AH$3</c:f>
+              <c:f>Sheet1!$AG$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4695,7 +4737,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AH$6</c:f>
+              <c:f>Sheet1!$AG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4716,7 +4758,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AI$3</c:f>
+              <c:f>Sheet1!$AH$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4740,7 +4782,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AI$6</c:f>
+              <c:f>Sheet1!$AH$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4761,7 +4803,7 @@
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AJ$3</c:f>
+              <c:f>Sheet1!$AI$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4784,7 +4826,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AJ$6</c:f>
+              <c:f>Sheet1!$AI$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4805,7 +4847,7 @@
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AK$3</c:f>
+              <c:f>Sheet1!$AJ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4828,7 +4870,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AK$6</c:f>
+              <c:f>Sheet1!$AJ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4849,7 +4891,7 @@
           <c:order val="32"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$3</c:f>
+              <c:f>Sheet1!$AK$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4872,7 +4914,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$6</c:f>
+              <c:f>Sheet1!$AK$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4893,7 +4935,7 @@
           <c:order val="33"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$3</c:f>
+              <c:f>Sheet1!$AL$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4916,7 +4958,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$6</c:f>
+              <c:f>Sheet1!$AL$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4937,7 +4979,7 @@
           <c:order val="34"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$3</c:f>
+              <c:f>Sheet1!$AM$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4960,7 +5002,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$6</c:f>
+              <c:f>Sheet1!$AM$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4981,7 +5023,7 @@
           <c:order val="35"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$3</c:f>
+              <c:f>Sheet1!$AN$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5004,7 +5046,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$6</c:f>
+              <c:f>Sheet1!$AN$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5025,7 +5067,7 @@
           <c:order val="36"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$3</c:f>
+              <c:f>Sheet1!$AO$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5049,7 +5091,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$6</c:f>
+              <c:f>Sheet1!$AO$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5070,7 +5112,7 @@
           <c:order val="37"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AQ$3</c:f>
+              <c:f>Sheet1!$AP$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5094,7 +5136,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$6</c:f>
+              <c:f>Sheet1!$AP$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5115,7 +5157,7 @@
           <c:order val="38"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$3</c:f>
+              <c:f>Sheet1!$AQ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5139,7 +5181,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AR$6</c:f>
+              <c:f>Sheet1!$AQ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5160,7 +5202,7 @@
           <c:order val="39"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AS$3</c:f>
+              <c:f>Sheet1!$AR$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5184,7 +5226,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AS$6</c:f>
+              <c:f>Sheet1!$AR$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5205,7 +5247,7 @@
           <c:order val="40"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$3</c:f>
+              <c:f>Sheet1!$AS$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5229,7 +5271,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AT$6</c:f>
+              <c:f>Sheet1!$AS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5250,7 +5292,7 @@
           <c:order val="41"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AU$3</c:f>
+              <c:f>Sheet1!$AT$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5274,7 +5316,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AU$6</c:f>
+              <c:f>Sheet1!$AT$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5295,7 +5337,7 @@
           <c:order val="42"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AV$3</c:f>
+              <c:f>Sheet1!$AU$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5318,7 +5360,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AV$6</c:f>
+              <c:f>Sheet1!$AU$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5339,7 +5381,7 @@
           <c:order val="43"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AW$3</c:f>
+              <c:f>Sheet1!$AV$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5362,7 +5404,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AW$6</c:f>
+              <c:f>Sheet1!$AV$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5383,7 +5425,7 @@
           <c:order val="44"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AX$3</c:f>
+              <c:f>Sheet1!$AW$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5406,7 +5448,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AX$6</c:f>
+              <c:f>Sheet1!$AW$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5427,7 +5469,7 @@
           <c:order val="45"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AY$3</c:f>
+              <c:f>Sheet1!$AX$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5450,7 +5492,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AY$6</c:f>
+              <c:f>Sheet1!$AX$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5471,7 +5513,7 @@
           <c:order val="46"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AZ$3</c:f>
+              <c:f>Sheet1!$AY$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5494,7 +5536,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AZ$6</c:f>
+              <c:f>Sheet1!$AY$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5515,7 +5557,7 @@
           <c:order val="47"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BA$3</c:f>
+              <c:f>Sheet1!$AZ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5538,7 +5580,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BA$6</c:f>
+              <c:f>Sheet1!$AZ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5559,7 +5601,7 @@
           <c:order val="48"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BB$3</c:f>
+              <c:f>Sheet1!$BA$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5583,7 +5625,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BB$6</c:f>
+              <c:f>Sheet1!$BA$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5604,7 +5646,7 @@
           <c:order val="49"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BC$3</c:f>
+              <c:f>Sheet1!$BB$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5628,7 +5670,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BC$6</c:f>
+              <c:f>Sheet1!$BB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5649,7 +5691,7 @@
           <c:order val="50"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BD$3</c:f>
+              <c:f>Sheet1!$BC$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5673,7 +5715,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BD$6</c:f>
+              <c:f>Sheet1!$BC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5694,7 +5736,7 @@
           <c:order val="51"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BE$3</c:f>
+              <c:f>Sheet1!$BD$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5718,7 +5760,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BE$6</c:f>
+              <c:f>Sheet1!$BD$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5739,7 +5781,7 @@
           <c:order val="52"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BF$3</c:f>
+              <c:f>Sheet1!$BE$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5763,7 +5805,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BF$6</c:f>
+              <c:f>Sheet1!$BE$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5784,7 +5826,7 @@
           <c:order val="53"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BG$3</c:f>
+              <c:f>Sheet1!$BF$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5808,7 +5850,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BG$6</c:f>
+              <c:f>Sheet1!$BF$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5829,7 +5871,7 @@
           <c:order val="54"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BH$3</c:f>
+              <c:f>Sheet1!$BG$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5850,7 +5892,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BH$6</c:f>
+              <c:f>Sheet1!$BG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5871,7 +5913,7 @@
           <c:order val="55"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BI$3</c:f>
+              <c:f>Sheet1!$BH$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5892,7 +5934,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BI$6</c:f>
+              <c:f>Sheet1!$BH$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5913,7 +5955,7 @@
           <c:order val="56"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BJ$3</c:f>
+              <c:f>Sheet1!$BI$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5934,7 +5976,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BJ$6</c:f>
+              <c:f>Sheet1!$BI$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5955,7 +5997,7 @@
           <c:order val="57"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BK$3</c:f>
+              <c:f>Sheet1!$BJ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5976,7 +6018,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BK$6</c:f>
+              <c:f>Sheet1!$BJ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5997,7 +6039,7 @@
           <c:order val="58"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BL$3</c:f>
+              <c:f>Sheet1!$BK$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6018,7 +6060,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BL$6</c:f>
+              <c:f>Sheet1!$BK$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6039,7 +6081,7 @@
           <c:order val="59"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BM$3</c:f>
+              <c:f>Sheet1!$BL$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6060,7 +6102,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BM$6</c:f>
+              <c:f>Sheet1!$BL$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6081,7 +6123,7 @@
           <c:order val="60"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BN$3</c:f>
+              <c:f>Sheet1!$BM$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6104,7 +6146,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BN$6</c:f>
+              <c:f>Sheet1!$BM$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6125,7 +6167,7 @@
           <c:order val="61"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BO$3</c:f>
+              <c:f>Sheet1!$BN$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6148,7 +6190,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BO$6</c:f>
+              <c:f>Sheet1!$BN$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6169,7 +6211,7 @@
           <c:order val="62"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BP$3</c:f>
+              <c:f>Sheet1!$BO$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6192,7 +6234,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BP$6</c:f>
+              <c:f>Sheet1!$BO$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6213,7 +6255,7 @@
           <c:order val="63"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BQ$3</c:f>
+              <c:f>Sheet1!$BP$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6236,7 +6278,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BQ$6</c:f>
+              <c:f>Sheet1!$BP$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6257,7 +6299,7 @@
           <c:order val="64"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BR$3</c:f>
+              <c:f>Sheet1!$BQ$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6280,7 +6322,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BR$6</c:f>
+              <c:f>Sheet1!$BQ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6301,7 +6343,7 @@
           <c:order val="65"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BS$3</c:f>
+              <c:f>Sheet1!$BR$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6324,7 +6366,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BS$6</c:f>
+              <c:f>Sheet1!$BR$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6345,7 +6387,7 @@
           <c:order val="66"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$BT$3</c:f>
+              <c:f>Sheet1!$BS$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6369,7 +6411,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$BT$6</c:f>
+              <c:f>Sheet1!$BS$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -8251,16 +8293,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438079</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148061</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9515</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>182697</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87201</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8293,7 +8335,7 @@
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -8331,7 +8373,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>538844</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>48986</xdr:rowOff>
@@ -8627,425 +8669,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:EC139"/>
+  <dimension ref="A3:EB139"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT10" activeCellId="1" sqref="BS6:EF6 BT10"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="68" width="10.625" customWidth="1"/>
-    <col min="69" max="69" width="11" customWidth="1"/>
-    <col min="70" max="70" width="10.625" customWidth="1"/>
-    <col min="71" max="71" width="10.875" customWidth="1"/>
-    <col min="72" max="72" width="11" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="67" width="10.625" customWidth="1"/>
+    <col min="68" max="68" width="11" customWidth="1"/>
+    <col min="69" max="69" width="10.625" customWidth="1"/>
+    <col min="70" max="70" width="10.875" customWidth="1"/>
+    <col min="71" max="71" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:133">
-      <c r="E3" s="1">
+    <row r="3" spans="1:132">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23">
         <v>41275</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="23">
         <v>41306</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="23">
         <v>41334</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="23">
         <v>41365</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="23">
         <v>41395</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="23">
         <v>41426</v>
       </c>
-      <c r="K3" s="1">
+      <c r="J3" s="23">
         <v>41456</v>
       </c>
-      <c r="L3" s="1">
+      <c r="K3" s="23">
         <v>41487</v>
       </c>
+      <c r="L3" s="23">
+        <v>41518</v>
+      </c>
       <c r="M3" s="1">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="N3" s="1">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="O3" s="1">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="P3" s="1">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="Q3" s="1">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="R3" s="1">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="S3" s="1">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="T3" s="1">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="U3" s="1">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="V3" s="1">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="W3" s="1">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="X3" s="1">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="Y3" s="1">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="Z3" s="1">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="AA3" s="1">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="AB3" s="1">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="AC3" s="1">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="AD3" s="1">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="AE3" s="1">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="AF3" s="1">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="AG3" s="1">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="AH3" s="1">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="AI3" s="1">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="AJ3" s="1">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="AK3" s="1">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="AL3" s="1">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="AM3" s="1">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="AN3" s="1">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="AO3" s="1">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="AP3" s="1">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="AQ3" s="1">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="AR3" s="1">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="AS3" s="1">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="AT3" s="1">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="AU3" s="1">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="AV3" s="1">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="AW3" s="1">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="AX3" s="1">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="AY3" s="1">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="AZ3" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="BA3" s="1">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="BB3" s="1">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="BC3" s="1">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="BD3" s="1">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="BE3" s="1">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="BF3" s="1">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="BG3" s="1">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="BH3" s="1">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="BI3" s="1">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="BJ3" s="1">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="BK3" s="1">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="BL3" s="1">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="BM3" s="1">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="BN3" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="BO3" s="1">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="BP3" s="1">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="BQ3" s="1">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="BR3" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="BS3" s="1">
-        <v>43282</v>
-      </c>
-      <c r="BT3" s="1">
         <v>43313</v>
       </c>
     </row>
-    <row r="4" spans="1:133">
+    <row r="4" spans="1:132">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="22">
         <v>64</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="22">
         <v>64</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="22">
         <v>66</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="22">
         <v>66</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="22">
         <v>65</v>
       </c>
-      <c r="J4">
+      <c r="I4" s="22">
         <v>62</v>
       </c>
-      <c r="K4">
+      <c r="J4" s="22">
         <v>57</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="22">
         <v>57</v>
       </c>
+      <c r="L4" s="22">
+        <v>59</v>
+      </c>
       <c r="M4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>50</v>
+      </c>
+      <c r="P4">
+        <v>54</v>
+      </c>
+      <c r="Q4">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>51</v>
+      </c>
+      <c r="S4">
+        <v>52</v>
+      </c>
+      <c r="T4">
+        <v>56</v>
+      </c>
+      <c r="U4">
+        <v>52</v>
+      </c>
+      <c r="V4">
+        <v>47</v>
+      </c>
+      <c r="W4">
+        <v>51</v>
+      </c>
+      <c r="X4">
         <v>58</v>
       </c>
-      <c r="O4">
-        <v>60</v>
-      </c>
-      <c r="P4">
+      <c r="Y4">
+        <v>52</v>
+      </c>
+      <c r="Z4">
+        <v>44</v>
+      </c>
+      <c r="AA4">
+        <v>47</v>
+      </c>
+      <c r="AB4">
         <v>50</v>
       </c>
-      <c r="Q4">
+      <c r="AC4">
         <v>54</v>
       </c>
-      <c r="R4">
-        <v>52</v>
-      </c>
-      <c r="S4">
+      <c r="AD4">
+        <v>46</v>
+      </c>
+      <c r="AE4">
         <v>51</v>
-      </c>
-      <c r="T4">
-        <v>52</v>
-      </c>
-      <c r="U4">
-        <v>56</v>
-      </c>
-      <c r="V4">
-        <v>52</v>
-      </c>
-      <c r="W4">
-        <v>47</v>
-      </c>
-      <c r="X4">
-        <v>51</v>
-      </c>
-      <c r="Y4">
-        <v>58</v>
-      </c>
-      <c r="Z4">
-        <v>52</v>
-      </c>
-      <c r="AA4">
-        <v>44</v>
-      </c>
-      <c r="AB4">
-        <v>47</v>
-      </c>
-      <c r="AC4">
-        <v>50</v>
-      </c>
-      <c r="AD4">
-        <v>54</v>
-      </c>
-      <c r="AE4">
-        <v>46</v>
       </c>
       <c r="AF4">
         <v>51</v>
       </c>
       <c r="AG4">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AH4">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AI4">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AJ4">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK4">
         <v>43</v>
       </c>
       <c r="AL4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="AM4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN4">
         <v>46</v>
       </c>
       <c r="AO4">
+        <v>50</v>
+      </c>
+      <c r="AP4">
         <v>46</v>
       </c>
-      <c r="AP4">
-        <v>50</v>
-      </c>
       <c r="AQ4">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AR4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AS4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AT4">
         <v>48</v>
       </c>
       <c r="AU4">
+        <v>53</v>
+      </c>
+      <c r="AV4">
+        <v>57</v>
+      </c>
+      <c r="AW4">
+        <v>50</v>
+      </c>
+      <c r="AX4">
+        <v>55</v>
+      </c>
+      <c r="AY4">
+        <v>50</v>
+      </c>
+      <c r="AZ4">
+        <v>55</v>
+      </c>
+      <c r="BA4">
+        <v>58</v>
+      </c>
+      <c r="BB4">
+        <v>51</v>
+      </c>
+      <c r="BC4">
+        <v>53</v>
+      </c>
+      <c r="BD4">
+        <v>51</v>
+      </c>
+      <c r="BE4">
         <v>48</v>
       </c>
-      <c r="AV4">
-        <v>53</v>
-      </c>
-      <c r="AW4">
-        <v>57</v>
-      </c>
-      <c r="AX4">
-        <v>50</v>
-      </c>
-      <c r="AY4">
-        <v>55</v>
-      </c>
-      <c r="AZ4">
-        <v>50</v>
-      </c>
-      <c r="BA4">
-        <v>55</v>
-      </c>
-      <c r="BB4">
-        <v>58</v>
-      </c>
-      <c r="BC4">
-        <v>51</v>
-      </c>
-      <c r="BD4">
-        <v>53</v>
-      </c>
-      <c r="BE4">
-        <v>51</v>
-      </c>
       <c r="BF4">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="BG4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BH4">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BI4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="BJ4">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="BK4">
+        <v>49</v>
+      </c>
+      <c r="BL4">
         <v>46</v>
-      </c>
-      <c r="BL4">
-        <v>49</v>
       </c>
       <c r="BM4">
         <v>46</v>
       </c>
       <c r="BN4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BO4">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="BP4">
         <v>38</v>
@@ -9054,315 +9099,319 @@
         <v>38</v>
       </c>
       <c r="BR4">
+        <v>44</v>
+      </c>
+      <c r="BS4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:132">
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>22</v>
+      </c>
+      <c r="E5" s="22">
+        <v>20</v>
+      </c>
+      <c r="F5" s="22">
+        <v>18</v>
+      </c>
+      <c r="G5" s="22">
+        <v>19</v>
+      </c>
+      <c r="H5" s="22">
+        <v>18</v>
+      </c>
+      <c r="I5" s="22">
+        <v>20</v>
+      </c>
+      <c r="J5" s="22">
+        <v>25</v>
+      </c>
+      <c r="K5" s="22">
+        <v>29</v>
+      </c>
+      <c r="L5" s="22">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+      <c r="O5">
+        <v>35</v>
+      </c>
+      <c r="P5">
+        <v>31</v>
+      </c>
+      <c r="Q5">
+        <v>33</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+      <c r="S5">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>29</v>
+      </c>
+      <c r="U5">
+        <v>32</v>
+      </c>
+      <c r="V5">
         <v>38</v>
       </c>
-      <c r="BS4">
-        <v>44</v>
-      </c>
-      <c r="BT4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:133">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>29</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>26</v>
-      </c>
-      <c r="O5">
-        <v>25</v>
-      </c>
-      <c r="P5">
-        <v>35</v>
-      </c>
-      <c r="Q5">
-        <v>31</v>
-      </c>
-      <c r="R5">
+      <c r="W5">
         <v>33</v>
       </c>
-      <c r="S5">
-        <v>30</v>
-      </c>
-      <c r="T5">
-        <v>31</v>
-      </c>
-      <c r="U5">
-        <v>29</v>
-      </c>
-      <c r="V5">
-        <v>32</v>
-      </c>
-      <c r="W5">
+      <c r="X5">
+        <v>28</v>
+      </c>
+      <c r="Y5">
+        <v>34</v>
+      </c>
+      <c r="Z5">
         <v>38</v>
-      </c>
-      <c r="X5">
-        <v>33</v>
-      </c>
-      <c r="Y5">
-        <v>28</v>
-      </c>
-      <c r="Z5">
-        <v>34</v>
       </c>
       <c r="AA5">
         <v>38</v>
       </c>
       <c r="AB5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AC5">
+        <v>29</v>
+      </c>
+      <c r="AD5">
+        <v>37</v>
+      </c>
+      <c r="AE5">
+        <v>34</v>
+      </c>
+      <c r="AF5">
         <v>32</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
+        <v>34</v>
+      </c>
+      <c r="AH5">
+        <v>43</v>
+      </c>
+      <c r="AI5">
+        <v>46</v>
+      </c>
+      <c r="AJ5">
+        <v>39</v>
+      </c>
+      <c r="AK5">
+        <v>40</v>
+      </c>
+      <c r="AL5">
+        <v>39</v>
+      </c>
+      <c r="AM5">
+        <v>36</v>
+      </c>
+      <c r="AN5">
+        <v>35</v>
+      </c>
+      <c r="AO5">
+        <v>34</v>
+      </c>
+      <c r="AP5">
+        <v>37</v>
+      </c>
+      <c r="AQ5">
+        <v>39</v>
+      </c>
+      <c r="AR5">
+        <v>36</v>
+      </c>
+      <c r="AS5">
+        <v>35</v>
+      </c>
+      <c r="AT5">
+        <v>36</v>
+      </c>
+      <c r="AU5">
+        <v>32</v>
+      </c>
+      <c r="AV5">
+        <v>26</v>
+      </c>
+      <c r="AW5">
+        <v>33</v>
+      </c>
+      <c r="AX5">
+        <v>26</v>
+      </c>
+      <c r="AY5">
+        <v>32</v>
+      </c>
+      <c r="AZ5">
         <v>29</v>
       </c>
-      <c r="AE5">
-        <v>37</v>
-      </c>
-      <c r="AF5">
-        <v>34</v>
-      </c>
-      <c r="AG5">
-        <v>32</v>
-      </c>
-      <c r="AH5">
-        <v>34</v>
-      </c>
-      <c r="AI5">
+      <c r="BA5">
+        <v>23</v>
+      </c>
+      <c r="BB5">
+        <v>31</v>
+      </c>
+      <c r="BC5">
+        <v>27</v>
+      </c>
+      <c r="BD5">
+        <v>30</v>
+      </c>
+      <c r="BE5">
+        <v>36</v>
+      </c>
+      <c r="BF5">
+        <v>48</v>
+      </c>
+      <c r="BG5">
         <v>43</v>
       </c>
-      <c r="AJ5">
-        <v>46</v>
-      </c>
-      <c r="AK5">
-        <v>39</v>
-      </c>
-      <c r="AL5">
-        <v>40</v>
-      </c>
-      <c r="AM5">
-        <v>39</v>
-      </c>
-      <c r="AN5">
+      <c r="BH5">
         <v>36</v>
       </c>
-      <c r="AO5">
+      <c r="BI5">
+        <v>43</v>
+      </c>
+      <c r="BJ5">
         <v>35</v>
-      </c>
-      <c r="AP5">
-        <v>34</v>
-      </c>
-      <c r="AQ5">
-        <v>37</v>
-      </c>
-      <c r="AR5">
-        <v>39</v>
-      </c>
-      <c r="AS5">
-        <v>36</v>
-      </c>
-      <c r="AT5">
-        <v>35</v>
-      </c>
-      <c r="AU5">
-        <v>36</v>
-      </c>
-      <c r="AV5">
-        <v>32</v>
-      </c>
-      <c r="AW5">
-        <v>26</v>
-      </c>
-      <c r="AX5">
-        <v>33</v>
-      </c>
-      <c r="AY5">
-        <v>26</v>
-      </c>
-      <c r="AZ5">
-        <v>32</v>
-      </c>
-      <c r="BA5">
-        <v>29</v>
-      </c>
-      <c r="BB5">
-        <v>23</v>
-      </c>
-      <c r="BC5">
-        <v>31</v>
-      </c>
-      <c r="BD5">
-        <v>27</v>
-      </c>
-      <c r="BE5">
-        <v>30</v>
-      </c>
-      <c r="BF5">
-        <v>36</v>
-      </c>
-      <c r="BG5">
-        <v>48</v>
-      </c>
-      <c r="BH5">
-        <v>43</v>
-      </c>
-      <c r="BI5">
-        <v>36</v>
-      </c>
-      <c r="BJ5">
-        <v>43</v>
       </c>
       <c r="BK5">
         <v>35</v>
       </c>
       <c r="BL5">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BM5">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="BN5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="BO5">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="BP5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BQ5">
         <v>44</v>
       </c>
       <c r="BR5">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="BS5">
-        <v>39</v>
-      </c>
-      <c r="BT5">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:133">
-      <c r="C6" t="s">
+    <row r="6" spans="1:132">
+      <c r="C6" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="25">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
         <f>F4-E4</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" ref="G6:BR6" si="0">G4-F4</f>
         <v>0</v>
       </c>
-      <c r="G6">
-        <f>G4-F4</f>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:BS6" si="0">H4-G4</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J6">
+      <c r="I6" s="22">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="22">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
@@ -9370,59 +9419,59 @@
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AN6">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
@@ -9430,7 +9479,7 @@
       </c>
       <c r="AR6">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AS6">
         <f t="shared" si="0"/>
@@ -9438,95 +9487,95 @@
       </c>
       <c r="AT6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="AX6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="AY6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BA6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="BC6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="BD6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="BE6">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="BF6">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="BG6">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="BH6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="BJ6">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="BK6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BL6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="BM6">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="BO6">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="BP6">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
         <f t="shared" si="0"/>
@@ -9534,1804 +9583,1801 @@
       </c>
       <c r="BR6">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BS6">
+        <f>BS4-BR4</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:132">
+      <c r="C7" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="22">
         <v>0</v>
       </c>
-      <c r="BS6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="BT6">
-        <f>BT4-BS4</f>
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="22">
         <v>-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:133">
-      <c r="C7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E7">
+      <c r="I7" s="22">
+        <v>-5</v>
+      </c>
+      <c r="J7" s="22">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="K7" s="22">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="L7" s="22">
         <v>-1</v>
       </c>
-      <c r="I7">
-        <v>-3</v>
-      </c>
-      <c r="J7">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>-2</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>-4</v>
+      </c>
+      <c r="U7">
         <v>-5</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>-1</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>-10</v>
-      </c>
-      <c r="P7">
+      <c r="V7">
         <v>4</v>
       </c>
-      <c r="Q7">
-        <v>-2</v>
-      </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>-4</v>
-      </c>
-      <c r="V7">
-        <v>-5</v>
-      </c>
       <c r="W7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X7">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Y7">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="Z7">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7">
+        <v>-8</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>-3</v>
+      </c>
+      <c r="AG7">
+        <v>-7</v>
+      </c>
+      <c r="AH7">
+        <v>-4</v>
+      </c>
+      <c r="AI7">
+        <v>6</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <v>4</v>
       </c>
-      <c r="AD7">
-        <v>-8</v>
-      </c>
-      <c r="AE7">
-        <v>5</v>
-      </c>
-      <c r="AF7">
+      <c r="AL7">
+        <v>-1</v>
+      </c>
+      <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AG7">
-        <v>-3</v>
-      </c>
-      <c r="AH7">
-        <v>-7</v>
-      </c>
-      <c r="AI7">
+      <c r="AN7">
+        <v>4</v>
+      </c>
+      <c r="AO7">
         <v>-4</v>
-      </c>
-      <c r="AJ7">
-        <v>6</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>4</v>
-      </c>
-      <c r="AM7">
-        <v>-1</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>4</v>
       </c>
       <c r="AP7">
         <v>-4</v>
       </c>
       <c r="AQ7">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AR7">
         <v>3</v>
       </c>
       <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>5</v>
+      </c>
+      <c r="AU7">
+        <v>4</v>
+      </c>
+      <c r="AV7">
+        <v>-7</v>
+      </c>
+      <c r="AW7">
+        <v>5</v>
+      </c>
+      <c r="AX7">
+        <v>-5</v>
+      </c>
+      <c r="AY7">
+        <v>5</v>
+      </c>
+      <c r="AZ7">
         <v>3</v>
       </c>
-      <c r="AT7">
+      <c r="BA7">
+        <v>-7</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
+        <v>-2</v>
+      </c>
+      <c r="BD7">
+        <v>-3</v>
+      </c>
+      <c r="BE7">
+        <v>-13</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>5</v>
+      </c>
+      <c r="BH7">
+        <v>-7</v>
+      </c>
+      <c r="BI7">
+        <v>9</v>
+      </c>
+      <c r="BJ7">
+        <v>3</v>
+      </c>
+      <c r="BK7">
+        <v>-3</v>
+      </c>
+      <c r="BL7">
         <v>0</v>
       </c>
-      <c r="AU7">
-        <v>5</v>
-      </c>
-      <c r="AV7">
-        <v>4</v>
-      </c>
-      <c r="AW7">
-        <v>-7</v>
-      </c>
-      <c r="AX7">
-        <v>5</v>
-      </c>
-      <c r="AY7">
-        <v>-5</v>
-      </c>
-      <c r="AZ7">
-        <v>5</v>
-      </c>
-      <c r="BA7">
-        <v>3</v>
-      </c>
-      <c r="BB7">
-        <v>-7</v>
-      </c>
-      <c r="BC7">
-        <v>2</v>
-      </c>
-      <c r="BD7">
+      <c r="BM7">
         <v>-2</v>
       </c>
-      <c r="BE7">
-        <v>-3</v>
-      </c>
-      <c r="BF7">
-        <v>-13</v>
-      </c>
-      <c r="BG7">
-        <v>4</v>
-      </c>
-      <c r="BH7">
-        <v>5</v>
-      </c>
-      <c r="BI7">
-        <v>-7</v>
-      </c>
-      <c r="BJ7">
-        <v>9</v>
-      </c>
-      <c r="BK7">
-        <v>3</v>
-      </c>
-      <c r="BL7">
-        <v>-3</v>
-      </c>
-      <c r="BM7">
+      <c r="BN7">
+        <v>-6</v>
+      </c>
+      <c r="BO7">
         <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>-2</v>
-      </c>
-      <c r="BO7">
-        <v>-6</v>
       </c>
       <c r="BP7">
         <v>0</v>
       </c>
       <c r="BQ7">
+        <v>6</v>
+      </c>
+      <c r="BR7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:132">
+      <c r="C8" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22">
         <v>0</v>
       </c>
-      <c r="BR7">
-        <v>6</v>
-      </c>
-      <c r="BS7">
+      <c r="F8" s="22">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="22">
         <v>-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:133">
-      <c r="C8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D8">
+      <c r="H8" s="22">
+        <v>-5</v>
+      </c>
+      <c r="I8" s="22">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="J8" s="22">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="K8" s="22">
         <v>-1</v>
       </c>
-      <c r="H8">
-        <v>-3</v>
-      </c>
-      <c r="I8">
+      <c r="L8" s="22">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>-2</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>-4</v>
+      </c>
+      <c r="T8">
         <v>-5</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>-10</v>
-      </c>
-      <c r="O8">
+      <c r="U8">
         <v>4</v>
       </c>
-      <c r="P8">
-        <v>-2</v>
-      </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>-4</v>
-      </c>
-      <c r="U8">
-        <v>-5</v>
-      </c>
       <c r="V8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="X8">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="Y8">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="Z8">
         <v>3</v>
       </c>
       <c r="AA8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8">
+        <v>-8</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>-3</v>
+      </c>
+      <c r="AF8">
+        <v>-7</v>
+      </c>
+      <c r="AG8">
+        <v>-4</v>
+      </c>
+      <c r="AH8">
+        <v>6</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
         <v>4</v>
       </c>
-      <c r="AC8">
-        <v>-8</v>
-      </c>
-      <c r="AD8">
-        <v>5</v>
-      </c>
-      <c r="AE8">
+      <c r="AK8">
+        <v>-1</v>
+      </c>
+      <c r="AL8">
         <v>0</v>
       </c>
-      <c r="AF8">
-        <v>-3</v>
-      </c>
-      <c r="AG8">
-        <v>-7</v>
-      </c>
-      <c r="AH8">
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8">
         <v>-4</v>
-      </c>
-      <c r="AI8">
-        <v>6</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>4</v>
-      </c>
-      <c r="AL8">
-        <v>-1</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>4</v>
       </c>
       <c r="AO8">
         <v>-4</v>
       </c>
       <c r="AP8">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AQ8">
         <v>3</v>
       </c>
       <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>5</v>
+      </c>
+      <c r="AT8">
+        <v>4</v>
+      </c>
+      <c r="AU8">
+        <v>-7</v>
+      </c>
+      <c r="AV8">
+        <v>5</v>
+      </c>
+      <c r="AW8">
+        <v>-5</v>
+      </c>
+      <c r="AX8">
+        <v>5</v>
+      </c>
+      <c r="AY8">
         <v>3</v>
       </c>
-      <c r="AS8">
+      <c r="AZ8">
+        <v>-7</v>
+      </c>
+      <c r="BA8">
+        <v>2</v>
+      </c>
+      <c r="BB8">
+        <v>-2</v>
+      </c>
+      <c r="BC8">
+        <v>-3</v>
+      </c>
+      <c r="BD8">
+        <v>-13</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <v>5</v>
+      </c>
+      <c r="BG8">
+        <v>-7</v>
+      </c>
+      <c r="BH8">
+        <v>9</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>-3</v>
+      </c>
+      <c r="BK8">
         <v>0</v>
       </c>
-      <c r="AT8">
-        <v>5</v>
-      </c>
-      <c r="AU8">
-        <v>4</v>
-      </c>
-      <c r="AV8">
-        <v>-7</v>
-      </c>
-      <c r="AW8">
-        <v>5</v>
-      </c>
-      <c r="AX8">
-        <v>-5</v>
-      </c>
-      <c r="AY8">
-        <v>5</v>
-      </c>
-      <c r="AZ8">
-        <v>3</v>
-      </c>
-      <c r="BA8">
-        <v>-7</v>
-      </c>
-      <c r="BB8">
-        <v>2</v>
-      </c>
-      <c r="BC8">
+      <c r="BL8">
         <v>-2</v>
       </c>
-      <c r="BD8">
-        <v>-3</v>
-      </c>
-      <c r="BE8">
-        <v>-13</v>
-      </c>
-      <c r="BF8">
-        <v>4</v>
-      </c>
-      <c r="BG8">
-        <v>5</v>
-      </c>
-      <c r="BH8">
-        <v>-7</v>
-      </c>
-      <c r="BI8">
-        <v>9</v>
-      </c>
-      <c r="BJ8">
-        <v>3</v>
-      </c>
-      <c r="BK8">
-        <v>-3</v>
-      </c>
-      <c r="BL8">
+      <c r="BM8">
+        <v>-6</v>
+      </c>
+      <c r="BN8">
         <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>-2</v>
-      </c>
-      <c r="BN8">
-        <v>-6</v>
       </c>
       <c r="BO8">
         <v>0</v>
       </c>
       <c r="BP8">
+        <v>6</v>
+      </c>
+      <c r="BQ8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:132">
+      <c r="BF12" s="1">
+        <v>43009</v>
+      </c>
+      <c r="BG12">
+        <v>9</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>42887</v>
+      </c>
+      <c r="BJ12">
+        <v>-13</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:132">
+      <c r="BF13" s="1">
+        <v>41852</v>
+      </c>
+      <c r="BG13">
+        <v>7</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>41579</v>
+      </c>
+      <c r="BJ13">
+        <v>-10</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>42917</v>
+      </c>
+      <c r="BN13">
+        <v>-13</v>
+      </c>
+      <c r="BO13">
+        <v>2</v>
+      </c>
+      <c r="BP13">
         <v>0</v>
       </c>
-      <c r="BQ8">
-        <v>6</v>
-      </c>
-      <c r="BR8">
+      <c r="BQ13">
+        <v>-1</v>
+      </c>
+      <c r="BR13">
         <v>-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:133">
-      <c r="BG12" s="1">
-        <v>43009</v>
-      </c>
-      <c r="BH12">
-        <v>9</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>42887</v>
-      </c>
-      <c r="BK12">
-        <v>-13</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:133">
-      <c r="BG13" s="1">
-        <v>41852</v>
-      </c>
-      <c r="BH13">
+      <c r="BS13">
+        <v>-5</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>2</v>
+      </c>
+      <c r="BV13">
+        <v>-1</v>
+      </c>
+      <c r="BW13">
+        <v>2</v>
+      </c>
+      <c r="BX13">
+        <v>-10</v>
+      </c>
+      <c r="BY13">
+        <v>4</v>
+      </c>
+      <c r="BZ13">
+        <v>-2</v>
+      </c>
+      <c r="CA13">
+        <v>-1</v>
+      </c>
+      <c r="CB13">
+        <v>1</v>
+      </c>
+      <c r="CC13">
+        <v>4</v>
+      </c>
+      <c r="CD13">
+        <v>-4</v>
+      </c>
+      <c r="CE13">
+        <v>-5</v>
+      </c>
+      <c r="CF13">
+        <v>4</v>
+      </c>
+      <c r="CG13">
         <v>7</v>
       </c>
-      <c r="BJ13" s="1">
-        <v>41579</v>
-      </c>
-      <c r="BK13">
-        <v>-10</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>42917</v>
-      </c>
-      <c r="BO13">
-        <v>-13</v>
-      </c>
-      <c r="BP13">
-        <v>2</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>-1</v>
-      </c>
-      <c r="BS13">
-        <v>-3</v>
-      </c>
-      <c r="BT13">
-        <v>-5</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>2</v>
-      </c>
-      <c r="BW13">
-        <v>-1</v>
-      </c>
-      <c r="BX13">
-        <v>2</v>
-      </c>
-      <c r="BY13">
-        <v>-10</v>
-      </c>
-      <c r="BZ13">
-        <v>4</v>
-      </c>
-      <c r="CA13">
-        <v>-2</v>
-      </c>
-      <c r="CB13">
-        <v>-1</v>
-      </c>
-      <c r="CC13">
-        <v>1</v>
-      </c>
-      <c r="CD13">
-        <v>4</v>
-      </c>
-      <c r="CE13">
-        <v>-4</v>
-      </c>
-      <c r="CF13">
-        <v>-5</v>
-      </c>
-      <c r="CG13">
-        <v>4</v>
-      </c>
       <c r="CH13">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="CI13">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="CJ13">
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="CK13">
         <v>3</v>
       </c>
       <c r="CL13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM13">
+        <v>-8</v>
+      </c>
+      <c r="CN13">
+        <v>5</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>-3</v>
+      </c>
+      <c r="CQ13">
+        <v>-7</v>
+      </c>
+      <c r="CR13">
+        <v>-4</v>
+      </c>
+      <c r="CS13">
+        <v>6</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
         <v>4</v>
       </c>
-      <c r="CN13">
-        <v>-8</v>
-      </c>
-      <c r="CO13">
-        <v>5</v>
-      </c>
-      <c r="CP13">
+      <c r="CV13">
+        <v>-1</v>
+      </c>
+      <c r="CW13">
         <v>0</v>
       </c>
-      <c r="CQ13">
-        <v>-3</v>
-      </c>
-      <c r="CR13">
-        <v>-7</v>
-      </c>
-      <c r="CS13">
+      <c r="CX13">
+        <v>4</v>
+      </c>
+      <c r="CY13">
         <v>-4</v>
-      </c>
-      <c r="CT13">
-        <v>6</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>4</v>
-      </c>
-      <c r="CW13">
-        <v>-1</v>
-      </c>
-      <c r="CX13">
-        <v>0</v>
-      </c>
-      <c r="CY13">
-        <v>4</v>
       </c>
       <c r="CZ13">
         <v>-4</v>
       </c>
       <c r="DA13">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="DB13">
         <v>3</v>
       </c>
       <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>5</v>
+      </c>
+      <c r="DE13">
+        <v>4</v>
+      </c>
+      <c r="DF13">
+        <v>-7</v>
+      </c>
+      <c r="DG13">
+        <v>5</v>
+      </c>
+      <c r="DH13">
+        <v>-5</v>
+      </c>
+      <c r="DI13">
+        <v>5</v>
+      </c>
+      <c r="DJ13">
         <v>3</v>
       </c>
-      <c r="DD13">
+      <c r="DK13">
+        <v>-7</v>
+      </c>
+      <c r="DL13">
+        <v>2</v>
+      </c>
+      <c r="DM13">
+        <v>-2</v>
+      </c>
+      <c r="DN13">
+        <v>-3</v>
+      </c>
+      <c r="DO13">
+        <v>-13</v>
+      </c>
+      <c r="DP13">
+        <v>4</v>
+      </c>
+      <c r="DQ13">
+        <v>5</v>
+      </c>
+      <c r="DR13">
+        <v>-7</v>
+      </c>
+      <c r="DS13">
+        <v>9</v>
+      </c>
+      <c r="DT13">
+        <v>3</v>
+      </c>
+      <c r="DU13">
+        <v>-3</v>
+      </c>
+      <c r="DV13">
         <v>0</v>
       </c>
-      <c r="DE13">
-        <v>5</v>
-      </c>
-      <c r="DF13">
-        <v>4</v>
-      </c>
-      <c r="DG13">
-        <v>-7</v>
-      </c>
-      <c r="DH13">
-        <v>5</v>
-      </c>
-      <c r="DI13">
-        <v>-5</v>
-      </c>
-      <c r="DJ13">
-        <v>5</v>
-      </c>
-      <c r="DK13">
-        <v>3</v>
-      </c>
-      <c r="DL13">
-        <v>-7</v>
-      </c>
-      <c r="DM13">
-        <v>2</v>
-      </c>
-      <c r="DN13">
+      <c r="DW13">
         <v>-2</v>
       </c>
-      <c r="DO13">
-        <v>-3</v>
-      </c>
-      <c r="DP13">
-        <v>-13</v>
-      </c>
-      <c r="DQ13">
-        <v>4</v>
-      </c>
-      <c r="DR13">
-        <v>5</v>
-      </c>
-      <c r="DS13">
-        <v>-7</v>
-      </c>
-      <c r="DT13">
-        <v>9</v>
-      </c>
-      <c r="DU13">
-        <v>3</v>
-      </c>
-      <c r="DV13">
-        <v>-3</v>
-      </c>
-      <c r="DW13">
+      <c r="DX13">
+        <v>-6</v>
+      </c>
+      <c r="DY13">
         <v>0</v>
-      </c>
-      <c r="DX13">
-        <v>-2</v>
-      </c>
-      <c r="DY13">
-        <v>-6</v>
       </c>
       <c r="DZ13">
         <v>0</v>
       </c>
       <c r="EA13">
+        <v>6</v>
+      </c>
+      <c r="EB13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:132">
+      <c r="BF14" s="1">
+        <v>43252</v>
+      </c>
+      <c r="BG14">
+        <v>6</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>41913</v>
+      </c>
+      <c r="BJ14">
+        <v>-8</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>41609</v>
+      </c>
+      <c r="BN14">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:132">
+      <c r="BF15" s="1">
+        <v>42217</v>
+      </c>
+      <c r="BG15">
+        <v>6</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>42036</v>
+      </c>
+      <c r="BJ15">
+        <v>-8</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>41944</v>
+      </c>
+      <c r="BN15">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:132">
+      <c r="BF16" s="1">
+        <v>42948</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>42156</v>
+      </c>
+      <c r="BJ16">
+        <v>-7</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>42064</v>
+      </c>
+      <c r="BN16">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="17" spans="58:66">
+      <c r="BF17" s="1">
+        <v>42705</v>
+      </c>
+      <c r="BG17">
+        <v>5</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>42614</v>
+      </c>
+      <c r="BJ17">
+        <v>-7</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>42186</v>
+      </c>
+      <c r="BN17">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="18" spans="58:66">
+      <c r="BF18" s="1">
+        <v>42644</v>
+      </c>
+      <c r="BG18">
+        <v>5</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>42767</v>
+      </c>
+      <c r="BJ18">
+        <v>-7</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>42644</v>
+      </c>
+      <c r="BN18">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="58:66">
+      <c r="BF19" s="1">
+        <v>42552</v>
+      </c>
+      <c r="BG19">
+        <v>5</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>42979</v>
+      </c>
+      <c r="BJ19">
+        <v>-7</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>42795</v>
+      </c>
+      <c r="BN19">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="20" spans="58:66">
+      <c r="BF20" s="1">
+        <v>42064</v>
+      </c>
+      <c r="BG20">
+        <v>5</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>41883</v>
+      </c>
+      <c r="BJ20">
+        <v>-6</v>
+      </c>
+      <c r="BM20" s="1">
+        <v>43009</v>
+      </c>
+      <c r="BN20">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21" spans="58:66">
+      <c r="BF21" s="1">
+        <v>42917</v>
+      </c>
+      <c r="BG21">
+        <v>4</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>43160</v>
+      </c>
+      <c r="BJ21">
+        <v>-6</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>41913</v>
+      </c>
+      <c r="BN21">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="22" spans="58:66">
+      <c r="BF22" s="1">
+        <v>42583</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>41426</v>
+      </c>
+      <c r="BJ22">
+        <v>-5</v>
+      </c>
+      <c r="BM22" s="1">
+        <v>43191</v>
+      </c>
+      <c r="BN22">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="23" spans="58:66">
+      <c r="BF23" s="1">
+        <v>42370</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BI23" s="1">
+        <v>41791</v>
+      </c>
+      <c r="BJ23">
+        <v>-5</v>
+      </c>
+      <c r="BM23" s="1">
+        <v>41456</v>
+      </c>
+      <c r="BN23">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="58:66">
+      <c r="BF24" s="1">
+        <v>42278</v>
+      </c>
+      <c r="BG24">
+        <v>4</v>
+      </c>
+      <c r="BI24" s="1">
+        <v>42675</v>
+      </c>
+      <c r="BJ24">
+        <v>-5</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>41821</v>
+      </c>
+      <c r="BN24">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="58:66">
+      <c r="BF25" s="1">
+        <v>42005</v>
+      </c>
+      <c r="BG25">
+        <v>4</v>
+      </c>
+      <c r="BI25" s="1">
+        <v>41760</v>
+      </c>
+      <c r="BJ25">
+        <v>-4</v>
+      </c>
+      <c r="BM25" s="1">
+        <v>42705</v>
+      </c>
+      <c r="BN25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="58:66">
+      <c r="BF26" s="1">
+        <v>41821</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+      <c r="BI26" s="1">
+        <v>42186</v>
+      </c>
+      <c r="BJ26">
+        <v>-4</v>
+      </c>
+      <c r="BM26" s="1">
+        <v>41791</v>
+      </c>
+      <c r="BN26">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" spans="58:66">
+      <c r="BF27" s="1">
+        <v>41730</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BI27" s="1">
+        <v>42401</v>
+      </c>
+      <c r="BJ27">
+        <v>-4</v>
+      </c>
+      <c r="BM27" s="1">
+        <v>42217</v>
+      </c>
+      <c r="BN27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" spans="58:66">
+      <c r="BF28" s="1">
+        <v>41609</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BI28" s="1">
+        <v>42430</v>
+      </c>
+      <c r="BJ28">
+        <v>-4</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>42430</v>
+      </c>
+      <c r="BN28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="29" spans="58:66">
+      <c r="BF29" s="1">
+        <v>43040</v>
+      </c>
+      <c r="BG29">
+        <v>3</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>41395</v>
+      </c>
+      <c r="BJ29">
+        <v>-3</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>42461</v>
+      </c>
+      <c r="BN29">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="30" spans="58:66">
+      <c r="BF30" s="1">
+        <v>42736</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>42125</v>
+      </c>
+      <c r="BJ30">
+        <v>-3</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>41426</v>
+      </c>
+      <c r="BN30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="58:66">
+      <c r="BF31" s="1">
+        <v>42491</v>
+      </c>
+      <c r="BG31">
+        <v>3</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>42856</v>
+      </c>
+      <c r="BJ31">
+        <v>-3</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>42156</v>
+      </c>
+      <c r="BN31">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="58:66">
+      <c r="BF32" s="1">
+        <v>42461</v>
+      </c>
+      <c r="BG32">
+        <v>3</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>43070</v>
+      </c>
+      <c r="BJ32">
+        <v>-3</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>42887</v>
+      </c>
+      <c r="BN32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="58:66">
+      <c r="BF33" s="1">
+        <v>41974</v>
+      </c>
+      <c r="BG33">
+        <v>3</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>43282</v>
+      </c>
+      <c r="BJ33">
+        <v>-3</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>43101</v>
+      </c>
+      <c r="BN33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="58:66">
+      <c r="BF34" s="1">
+        <v>41944</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>43313</v>
+      </c>
+      <c r="BN34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="58:66">
+      <c r="BF35" s="1">
+        <v>42795</v>
+      </c>
+      <c r="BG35">
+        <v>2</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>41671</v>
+      </c>
+      <c r="BN35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="58:66">
+      <c r="BF36" s="1">
+        <v>41548</v>
+      </c>
+      <c r="BG36">
+        <v>2</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>42856</v>
+      </c>
+      <c r="BN36">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="58:66">
+      <c r="BF37" s="1">
+        <v>41487</v>
+      </c>
+      <c r="BG37">
+        <v>2</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>43160</v>
+      </c>
+      <c r="BN37">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="38" spans="58:66">
+      <c r="BF38" s="1">
+        <v>41306</v>
+      </c>
+      <c r="BG38">
+        <v>2</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>41395</v>
+      </c>
+      <c r="BN38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="58:66">
+      <c r="BF39" s="1">
+        <v>41699</v>
+      </c>
+      <c r="BG39">
+        <v>1</v>
+      </c>
+      <c r="BM39" s="1">
+        <v>41548</v>
+      </c>
+      <c r="BN39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="58:66">
+      <c r="BF40" s="1">
+        <v>43221</v>
+      </c>
+      <c r="BG40">
         <v>0</v>
       </c>
-      <c r="EB13">
-        <v>6</v>
-      </c>
-      <c r="EC13">
+      <c r="BM40" s="1">
+        <v>41699</v>
+      </c>
+      <c r="BN40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="58:66">
+      <c r="BF41" s="1">
+        <v>43191</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BM41" s="1">
+        <v>42339</v>
+      </c>
+      <c r="BN41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="58:66">
+      <c r="BF42" s="1">
+        <v>43101</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="1">
+        <v>41306</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="58:66">
+      <c r="BF43" s="1">
+        <v>42522</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BM43" s="1">
+        <v>41365</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="58:66">
+      <c r="BF44" s="1">
+        <v>42339</v>
+      </c>
+      <c r="BG44">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="1">
+        <v>41487</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="58:66">
+      <c r="BF45" s="1">
+        <v>42248</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="1">
+        <v>42125</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="58:66">
+      <c r="BF46" s="1">
+        <v>42095</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BM46" s="1">
+        <v>42278</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="58:66">
+      <c r="BF47" s="1">
+        <v>41456</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BM47" s="1">
+        <v>42370</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="58:66">
+      <c r="BF48" s="1">
+        <v>41334</v>
+      </c>
+      <c r="BG48">
+        <v>0</v>
+      </c>
+      <c r="BM48" s="1">
+        <v>42552</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:66">
+      <c r="BF49" s="1">
+        <v>41275</v>
+      </c>
+      <c r="BG49">
+        <v>0</v>
+      </c>
+      <c r="BM49" s="1">
+        <v>43132</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:66">
+      <c r="BF50" s="1">
+        <v>42309</v>
+      </c>
+      <c r="BG50">
+        <v>-1</v>
+      </c>
+      <c r="BM50" s="1">
+        <v>43221</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:66">
+      <c r="BF51" s="1">
+        <v>41671</v>
+      </c>
+      <c r="BG51">
+        <v>-1</v>
+      </c>
+      <c r="BM51" s="1">
+        <v>43252</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:66">
+      <c r="BF52" s="1">
+        <v>41518</v>
+      </c>
+      <c r="BG52">
+        <v>-1</v>
+      </c>
+      <c r="BM52" s="1">
+        <v>41730</v>
+      </c>
+      <c r="BN52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="4:66">
+      <c r="BF53" s="1">
+        <v>41365</v>
+      </c>
+      <c r="BG53">
+        <v>-1</v>
+      </c>
+      <c r="BM53" s="1">
+        <v>41334</v>
+      </c>
+      <c r="BN53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:66">
+      <c r="BF54" s="1">
+        <v>43132</v>
+      </c>
+      <c r="BG54">
+        <v>-2</v>
+      </c>
+      <c r="BM54" s="1">
+        <v>41518</v>
+      </c>
+      <c r="BN54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:66">
+      <c r="BF55" s="1">
+        <v>42826</v>
+      </c>
+      <c r="BG55">
+        <v>-2</v>
+      </c>
+      <c r="BM55" s="1">
+        <v>41579</v>
+      </c>
+      <c r="BN55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:66">
+      <c r="BF56" s="1">
+        <v>41640</v>
+      </c>
+      <c r="BG56">
+        <v>-2</v>
+      </c>
+      <c r="BM56" s="1">
+        <v>42826</v>
+      </c>
+      <c r="BN56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:66">
+      <c r="BF57" s="1">
+        <v>43282</v>
+      </c>
+      <c r="BG57">
         <v>-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:133">
-      <c r="BG14" s="1">
+      <c r="BM57" s="1">
+        <v>41974</v>
+      </c>
+      <c r="BN57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="4:66">
+      <c r="BF58" s="1">
+        <v>43070</v>
+      </c>
+      <c r="BG58">
+        <v>-3</v>
+      </c>
+      <c r="BM58" s="1">
+        <v>42005</v>
+      </c>
+      <c r="BN58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="4:66">
+      <c r="BF59" s="1">
+        <v>42856</v>
+      </c>
+      <c r="BG59">
+        <v>-3</v>
+      </c>
+      <c r="BM59" s="1">
+        <v>42491</v>
+      </c>
+      <c r="BN59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="4:66">
+      <c r="BF60" s="1">
+        <v>42125</v>
+      </c>
+      <c r="BG60">
+        <v>-3</v>
+      </c>
+      <c r="BM60" s="1">
+        <v>42522</v>
+      </c>
+      <c r="BN60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="4:66">
+      <c r="BF61" s="1">
+        <v>41395</v>
+      </c>
+      <c r="BG61">
+        <v>-3</v>
+      </c>
+      <c r="BM61" s="1">
+        <v>42767</v>
+      </c>
+      <c r="BN61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="4:66">
+      <c r="BF62" s="1">
+        <v>42430</v>
+      </c>
+      <c r="BG62">
+        <v>-4</v>
+      </c>
+      <c r="BM62" s="1">
+        <v>43070</v>
+      </c>
+      <c r="BN62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="4:66">
+      <c r="D63" s="1"/>
+      <c r="BF63" s="1">
+        <v>42401</v>
+      </c>
+      <c r="BG63">
+        <v>-4</v>
+      </c>
+      <c r="BM63" s="1">
+        <v>41640</v>
+      </c>
+      <c r="BN63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:66">
+      <c r="BF64" s="1">
+        <v>42186</v>
+      </c>
+      <c r="BG64">
+        <v>-4</v>
+      </c>
+      <c r="BM64" s="1">
+        <v>41760</v>
+      </c>
+      <c r="BN64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="5:71">
+      <c r="BF65" s="1">
+        <v>41760</v>
+      </c>
+      <c r="BG65">
+        <v>-4</v>
+      </c>
+      <c r="BM65" s="1">
+        <v>41852</v>
+      </c>
+      <c r="BN65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="5:71">
+      <c r="E66" s="1">
+        <v>41306</v>
+      </c>
+      <c r="F66" s="1">
+        <v>41334</v>
+      </c>
+      <c r="G66" s="1">
+        <v>41365</v>
+      </c>
+      <c r="H66" s="1">
+        <v>41395</v>
+      </c>
+      <c r="I66" s="1">
+        <v>41426</v>
+      </c>
+      <c r="J66" s="1">
+        <v>41456</v>
+      </c>
+      <c r="K66" s="1">
+        <v>41487</v>
+      </c>
+      <c r="L66" s="1">
+        <v>41518</v>
+      </c>
+      <c r="M66" s="1">
+        <v>41548</v>
+      </c>
+      <c r="N66" s="1">
+        <v>41579</v>
+      </c>
+      <c r="O66" s="1">
+        <v>41609</v>
+      </c>
+      <c r="P66" s="1">
+        <v>41640</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>41671</v>
+      </c>
+      <c r="R66" s="1">
+        <v>41699</v>
+      </c>
+      <c r="S66" s="1">
+        <v>41730</v>
+      </c>
+      <c r="T66" s="1">
+        <v>41760</v>
+      </c>
+      <c r="U66" s="1">
+        <v>41791</v>
+      </c>
+      <c r="V66" s="1">
+        <v>41821</v>
+      </c>
+      <c r="W66" s="1">
+        <v>41852</v>
+      </c>
+      <c r="X66" s="1">
+        <v>41883</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>41913</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>41944</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>41974</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>42005</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>42036</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>42064</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>42095</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>42125</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>42156</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>42186</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>42217</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>42248</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>42278</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>42309</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>42339</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>42370</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>42401</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>42430</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>42461</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>42491</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>42522</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>42552</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>42583</v>
+      </c>
+      <c r="AV66" s="1">
+        <v>42614</v>
+      </c>
+      <c r="AW66" s="1">
+        <v>42644</v>
+      </c>
+      <c r="AX66" s="1">
+        <v>42675</v>
+      </c>
+      <c r="AY66" s="1">
+        <v>42705</v>
+      </c>
+      <c r="AZ66" s="1">
+        <v>42736</v>
+      </c>
+      <c r="BA66" s="1">
+        <v>42767</v>
+      </c>
+      <c r="BB66" s="1">
+        <v>42795</v>
+      </c>
+      <c r="BC66" s="1">
+        <v>42826</v>
+      </c>
+      <c r="BD66" s="1">
+        <v>42856</v>
+      </c>
+      <c r="BE66" s="1">
+        <v>42887</v>
+      </c>
+      <c r="BF66" s="1">
+        <v>42675</v>
+      </c>
+      <c r="BG66">
+        <v>-5</v>
+      </c>
+      <c r="BH66" s="1">
+        <v>42979</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>43009</v>
+      </c>
+      <c r="BJ66" s="1">
+        <v>43040</v>
+      </c>
+      <c r="BK66" s="1">
+        <v>43070</v>
+      </c>
+      <c r="BL66" s="1">
+        <v>43101</v>
+      </c>
+      <c r="BM66" s="1">
+        <v>42036</v>
+      </c>
+      <c r="BN66">
+        <v>4</v>
+      </c>
+      <c r="BO66" s="1">
+        <v>43191</v>
+      </c>
+      <c r="BP66" s="1">
+        <v>43221</v>
+      </c>
+      <c r="BQ66" s="1">
         <v>43252</v>
       </c>
-      <c r="BH14">
-        <v>6</v>
-      </c>
-      <c r="BJ14" s="1">
-        <v>41913</v>
-      </c>
-      <c r="BK14">
-        <v>-8</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>41609</v>
-      </c>
-      <c r="BO14">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:133">
-      <c r="BG15" s="1">
-        <v>42217</v>
-      </c>
-      <c r="BH15">
-        <v>6</v>
-      </c>
-      <c r="BJ15" s="1">
-        <v>42036</v>
-      </c>
-      <c r="BK15">
-        <v>-8</v>
-      </c>
-      <c r="BN15" s="1">
-        <v>41944</v>
-      </c>
-      <c r="BO15">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:133">
-      <c r="BG16" s="1">
-        <v>42948</v>
-      </c>
-      <c r="BH16">
-        <v>5</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>42156</v>
-      </c>
-      <c r="BK16">
-        <v>-7</v>
-      </c>
-      <c r="BN16" s="1">
-        <v>42064</v>
-      </c>
-      <c r="BO16">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="17" spans="59:67">
-      <c r="BG17" s="1">
-        <v>42705</v>
-      </c>
-      <c r="BH17">
-        <v>5</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>42614</v>
-      </c>
-      <c r="BK17">
-        <v>-7</v>
-      </c>
-      <c r="BN17" s="1">
-        <v>42186</v>
-      </c>
-      <c r="BO17">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="18" spans="59:67">
-      <c r="BG18" s="1">
-        <v>42644</v>
-      </c>
-      <c r="BH18">
-        <v>5</v>
-      </c>
-      <c r="BJ18" s="1">
-        <v>42767</v>
-      </c>
-      <c r="BK18">
-        <v>-7</v>
-      </c>
-      <c r="BN18" s="1">
-        <v>42644</v>
-      </c>
-      <c r="BO18">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="19" spans="59:67">
-      <c r="BG19" s="1">
-        <v>42552</v>
-      </c>
-      <c r="BH19">
-        <v>5</v>
-      </c>
-      <c r="BJ19" s="1">
-        <v>42979</v>
-      </c>
-      <c r="BK19">
-        <v>-7</v>
-      </c>
-      <c r="BN19" s="1">
-        <v>42795</v>
-      </c>
-      <c r="BO19">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="20" spans="59:67">
-      <c r="BG20" s="1">
-        <v>42064</v>
-      </c>
-      <c r="BH20">
-        <v>5</v>
-      </c>
-      <c r="BJ20" s="1">
-        <v>41883</v>
-      </c>
-      <c r="BK20">
-        <v>-6</v>
-      </c>
-      <c r="BN20" s="1">
-        <v>43009</v>
-      </c>
-      <c r="BO20">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="21" spans="59:67">
-      <c r="BG21" s="1">
-        <v>42917</v>
-      </c>
-      <c r="BH21">
-        <v>4</v>
-      </c>
-      <c r="BJ21" s="1">
-        <v>43160</v>
-      </c>
-      <c r="BK21">
-        <v>-6</v>
-      </c>
-      <c r="BN21" s="1">
-        <v>41913</v>
-      </c>
-      <c r="BO21">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="22" spans="59:67">
-      <c r="BG22" s="1">
-        <v>42583</v>
-      </c>
-      <c r="BH22">
-        <v>4</v>
-      </c>
-      <c r="BJ22" s="1">
-        <v>41426</v>
-      </c>
-      <c r="BK22">
-        <v>-5</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>43191</v>
-      </c>
-      <c r="BO22">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="23" spans="59:67">
-      <c r="BG23" s="1">
-        <v>42370</v>
-      </c>
-      <c r="BH23">
-        <v>4</v>
-      </c>
-      <c r="BJ23" s="1">
-        <v>41791</v>
-      </c>
-      <c r="BK23">
-        <v>-5</v>
-      </c>
-      <c r="BN23" s="1">
-        <v>41456</v>
-      </c>
-      <c r="BO23">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="24" spans="59:67">
-      <c r="BG24" s="1">
-        <v>42278</v>
-      </c>
-      <c r="BH24">
-        <v>4</v>
-      </c>
-      <c r="BJ24" s="1">
-        <v>42675</v>
-      </c>
-      <c r="BK24">
-        <v>-5</v>
-      </c>
-      <c r="BN24" s="1">
-        <v>41821</v>
-      </c>
-      <c r="BO24">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="25" spans="59:67">
-      <c r="BG25" s="1">
-        <v>42005</v>
-      </c>
-      <c r="BH25">
-        <v>4</v>
-      </c>
-      <c r="BJ25" s="1">
-        <v>41760</v>
-      </c>
-      <c r="BK25">
-        <v>-4</v>
-      </c>
-      <c r="BN25" s="1">
-        <v>42705</v>
-      </c>
-      <c r="BO25">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="26" spans="59:67">
-      <c r="BG26" s="1">
-        <v>41821</v>
-      </c>
-      <c r="BH26">
-        <v>4</v>
-      </c>
-      <c r="BJ26" s="1">
-        <v>42186</v>
-      </c>
-      <c r="BK26">
-        <v>-4</v>
-      </c>
-      <c r="BN26" s="1">
-        <v>41791</v>
-      </c>
-      <c r="BO26">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="27" spans="59:67">
-      <c r="BG27" s="1">
-        <v>41730</v>
-      </c>
-      <c r="BH27">
-        <v>4</v>
-      </c>
-      <c r="BJ27" s="1">
-        <v>42401</v>
-      </c>
-      <c r="BK27">
-        <v>-4</v>
-      </c>
-      <c r="BN27" s="1">
-        <v>42217</v>
-      </c>
-      <c r="BO27">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="28" spans="59:67">
-      <c r="BG28" s="1">
-        <v>41609</v>
-      </c>
-      <c r="BH28">
-        <v>4</v>
-      </c>
-      <c r="BJ28" s="1">
-        <v>42430</v>
-      </c>
-      <c r="BK28">
-        <v>-4</v>
-      </c>
-      <c r="BN28" s="1">
-        <v>42430</v>
-      </c>
-      <c r="BO28">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="29" spans="59:67">
-      <c r="BG29" s="1">
-        <v>43040</v>
-      </c>
-      <c r="BH29">
-        <v>3</v>
-      </c>
-      <c r="BJ29" s="1">
-        <v>41395</v>
-      </c>
-      <c r="BK29">
-        <v>-3</v>
-      </c>
-      <c r="BN29" s="1">
-        <v>42461</v>
-      </c>
-      <c r="BO29">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="30" spans="59:67">
-      <c r="BG30" s="1">
-        <v>42736</v>
-      </c>
-      <c r="BH30">
-        <v>3</v>
-      </c>
-      <c r="BJ30" s="1">
-        <v>42125</v>
-      </c>
-      <c r="BK30">
-        <v>-3</v>
-      </c>
-      <c r="BN30" s="1">
-        <v>41426</v>
-      </c>
-      <c r="BO30">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="31" spans="59:67">
-      <c r="BG31" s="1">
-        <v>42491</v>
-      </c>
-      <c r="BH31">
-        <v>3</v>
-      </c>
-      <c r="BJ31" s="1">
-        <v>42856</v>
-      </c>
-      <c r="BK31">
-        <v>-3</v>
-      </c>
-      <c r="BN31" s="1">
-        <v>42156</v>
-      </c>
-      <c r="BO31">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="59:67">
-      <c r="BG32" s="1">
-        <v>42461</v>
-      </c>
-      <c r="BH32">
-        <v>3</v>
-      </c>
-      <c r="BJ32" s="1">
-        <v>43070</v>
-      </c>
-      <c r="BK32">
-        <v>-3</v>
-      </c>
-      <c r="BN32" s="1">
-        <v>42887</v>
-      </c>
-      <c r="BO32">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="33" spans="59:67">
-      <c r="BG33" s="1">
-        <v>41974</v>
-      </c>
-      <c r="BH33">
-        <v>3</v>
-      </c>
-      <c r="BJ33" s="1">
+      <c r="BR66" s="1">
         <v>43282</v>
       </c>
-      <c r="BK33">
-        <v>-3</v>
-      </c>
-      <c r="BN33" s="1">
-        <v>43101</v>
-      </c>
-      <c r="BO33">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="34" spans="59:67">
-      <c r="BG34" s="1">
-        <v>41944</v>
-      </c>
-      <c r="BH34">
-        <v>3</v>
-      </c>
-      <c r="BN34" s="1">
+      <c r="BS66" s="1">
         <v>43313</v>
       </c>
-      <c r="BO34">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="35" spans="59:67">
-      <c r="BG35" s="1">
-        <v>42795</v>
-      </c>
-      <c r="BH35">
+    </row>
+    <row r="67" spans="5:71">
+      <c r="E67">
+        <f t="shared" ref="E67:AJ67" si="1">E6</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
         <v>2</v>
-      </c>
-      <c r="BN35" s="1">
-        <v>41671</v>
-      </c>
-      <c r="BO35">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="36" spans="59:67">
-      <c r="BG36" s="1">
-        <v>41548</v>
-      </c>
-      <c r="BH36">
-        <v>2</v>
-      </c>
-      <c r="BN36" s="1">
-        <v>42856</v>
-      </c>
-      <c r="BO36">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="37" spans="59:67">
-      <c r="BG37" s="1">
-        <v>41487</v>
-      </c>
-      <c r="BH37">
-        <v>2</v>
-      </c>
-      <c r="BN37" s="1">
-        <v>43160</v>
-      </c>
-      <c r="BO37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38" spans="59:67">
-      <c r="BG38" s="1">
-        <v>41306</v>
-      </c>
-      <c r="BH38">
-        <v>2</v>
-      </c>
-      <c r="BN38" s="1">
-        <v>41395</v>
-      </c>
-      <c r="BO38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="59:67">
-      <c r="BG39" s="1">
-        <v>41699</v>
-      </c>
-      <c r="BH39">
-        <v>1</v>
-      </c>
-      <c r="BN39" s="1">
-        <v>41548</v>
-      </c>
-      <c r="BO39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="59:67">
-      <c r="BG40" s="1">
-        <v>43221</v>
-      </c>
-      <c r="BH40">
-        <v>0</v>
-      </c>
-      <c r="BN40" s="1">
-        <v>41699</v>
-      </c>
-      <c r="BO40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="59:67">
-      <c r="BG41" s="1">
-        <v>43191</v>
-      </c>
-      <c r="BH41">
-        <v>0</v>
-      </c>
-      <c r="BN41" s="1">
-        <v>42339</v>
-      </c>
-      <c r="BO41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="59:67">
-      <c r="BG42" s="1">
-        <v>43101</v>
-      </c>
-      <c r="BH42">
-        <v>0</v>
-      </c>
-      <c r="BN42" s="1">
-        <v>41306</v>
-      </c>
-      <c r="BO42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="59:67">
-      <c r="BG43" s="1">
-        <v>42522</v>
-      </c>
-      <c r="BH43">
-        <v>0</v>
-      </c>
-      <c r="BN43" s="1">
-        <v>41365</v>
-      </c>
-      <c r="BO43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="59:67">
-      <c r="BG44" s="1">
-        <v>42339</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BN44" s="1">
-        <v>41487</v>
-      </c>
-      <c r="BO44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="59:67">
-      <c r="BG45" s="1">
-        <v>42248</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BN45" s="1">
-        <v>42125</v>
-      </c>
-      <c r="BO45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="59:67">
-      <c r="BG46" s="1">
-        <v>42095</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BN46" s="1">
-        <v>42278</v>
-      </c>
-      <c r="BO46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="59:67">
-      <c r="BG47" s="1">
-        <v>41456</v>
-      </c>
-      <c r="BH47">
-        <v>0</v>
-      </c>
-      <c r="BN47" s="1">
-        <v>42370</v>
-      </c>
-      <c r="BO47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="59:67">
-      <c r="BG48" s="1">
-        <v>41334</v>
-      </c>
-      <c r="BH48">
-        <v>0</v>
-      </c>
-      <c r="BN48" s="1">
-        <v>42552</v>
-      </c>
-      <c r="BO48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:67">
-      <c r="BG49" s="1">
-        <v>41275</v>
-      </c>
-      <c r="BH49">
-        <v>0</v>
-      </c>
-      <c r="BN49" s="1">
-        <v>43132</v>
-      </c>
-      <c r="BO49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:67">
-      <c r="BG50" s="1">
-        <v>42309</v>
-      </c>
-      <c r="BH50">
-        <v>-1</v>
-      </c>
-      <c r="BN50" s="1">
-        <v>43221</v>
-      </c>
-      <c r="BO50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:67">
-      <c r="BG51" s="1">
-        <v>41671</v>
-      </c>
-      <c r="BH51">
-        <v>-1</v>
-      </c>
-      <c r="BN51" s="1">
-        <v>43252</v>
-      </c>
-      <c r="BO51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:67">
-      <c r="BG52" s="1">
-        <v>41518</v>
-      </c>
-      <c r="BH52">
-        <v>-1</v>
-      </c>
-      <c r="BN52" s="1">
-        <v>41730</v>
-      </c>
-      <c r="BO52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="5:67">
-      <c r="BG53" s="1">
-        <v>41365</v>
-      </c>
-      <c r="BH53">
-        <v>-1</v>
-      </c>
-      <c r="BN53" s="1">
-        <v>41334</v>
-      </c>
-      <c r="BO53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="5:67">
-      <c r="BG54" s="1">
-        <v>43132</v>
-      </c>
-      <c r="BH54">
-        <v>-2</v>
-      </c>
-      <c r="BN54" s="1">
-        <v>41518</v>
-      </c>
-      <c r="BO54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="5:67">
-      <c r="BG55" s="1">
-        <v>42826</v>
-      </c>
-      <c r="BH55">
-        <v>-2</v>
-      </c>
-      <c r="BN55" s="1">
-        <v>41579</v>
-      </c>
-      <c r="BO55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="5:67">
-      <c r="BG56" s="1">
-        <v>41640</v>
-      </c>
-      <c r="BH56">
-        <v>-2</v>
-      </c>
-      <c r="BN56" s="1">
-        <v>42826</v>
-      </c>
-      <c r="BO56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="5:67">
-      <c r="BG57" s="1">
-        <v>43282</v>
-      </c>
-      <c r="BH57">
-        <v>-3</v>
-      </c>
-      <c r="BN57" s="1">
-        <v>41974</v>
-      </c>
-      <c r="BO57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="5:67">
-      <c r="BG58" s="1">
-        <v>43070</v>
-      </c>
-      <c r="BH58">
-        <v>-3</v>
-      </c>
-      <c r="BN58" s="1">
-        <v>42005</v>
-      </c>
-      <c r="BO58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="5:67">
-      <c r="BG59" s="1">
-        <v>42856</v>
-      </c>
-      <c r="BH59">
-        <v>-3</v>
-      </c>
-      <c r="BN59" s="1">
-        <v>42491</v>
-      </c>
-      <c r="BO59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="5:67">
-      <c r="BG60" s="1">
-        <v>42125</v>
-      </c>
-      <c r="BH60">
-        <v>-3</v>
-      </c>
-      <c r="BN60" s="1">
-        <v>42522</v>
-      </c>
-      <c r="BO60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="5:67">
-      <c r="BG61" s="1">
-        <v>41395</v>
-      </c>
-      <c r="BH61">
-        <v>-3</v>
-      </c>
-      <c r="BN61" s="1">
-        <v>42767</v>
-      </c>
-      <c r="BO61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="5:67">
-      <c r="BG62" s="1">
-        <v>42430</v>
-      </c>
-      <c r="BH62">
-        <v>-4</v>
-      </c>
-      <c r="BN62" s="1">
-        <v>43070</v>
-      </c>
-      <c r="BO62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="5:67">
-      <c r="E63" s="1"/>
-      <c r="BG63" s="1">
-        <v>42401</v>
-      </c>
-      <c r="BH63">
-        <v>-4</v>
-      </c>
-      <c r="BN63" s="1">
-        <v>41640</v>
-      </c>
-      <c r="BO63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="5:67">
-      <c r="BG64" s="1">
-        <v>42186</v>
-      </c>
-      <c r="BH64">
-        <v>-4</v>
-      </c>
-      <c r="BN64" s="1">
-        <v>41760</v>
-      </c>
-      <c r="BO64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="6:72">
-      <c r="BG65" s="1">
-        <v>41760</v>
-      </c>
-      <c r="BH65">
-        <v>-4</v>
-      </c>
-      <c r="BN65" s="1">
-        <v>41852</v>
-      </c>
-      <c r="BO65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="6:72">
-      <c r="F66" s="1">
-        <v>41306</v>
-      </c>
-      <c r="G66" s="1">
-        <v>41334</v>
-      </c>
-      <c r="H66" s="1">
-        <v>41365</v>
-      </c>
-      <c r="I66" s="1">
-        <v>41395</v>
-      </c>
-      <c r="J66" s="1">
-        <v>41426</v>
-      </c>
-      <c r="K66" s="1">
-        <v>41456</v>
-      </c>
-      <c r="L66" s="1">
-        <v>41487</v>
-      </c>
-      <c r="M66" s="1">
-        <v>41518</v>
-      </c>
-      <c r="N66" s="1">
-        <v>41548</v>
-      </c>
-      <c r="O66" s="1">
-        <v>41579</v>
-      </c>
-      <c r="P66" s="1">
-        <v>41609</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>41640</v>
-      </c>
-      <c r="R66" s="1">
-        <v>41671</v>
-      </c>
-      <c r="S66" s="1">
-        <v>41699</v>
-      </c>
-      <c r="T66" s="1">
-        <v>41730</v>
-      </c>
-      <c r="U66" s="1">
-        <v>41760</v>
-      </c>
-      <c r="V66" s="1">
-        <v>41791</v>
-      </c>
-      <c r="W66" s="1">
-        <v>41821</v>
-      </c>
-      <c r="X66" s="1">
-        <v>41852</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>41883</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>41913</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>41944</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>41974</v>
-      </c>
-      <c r="AC66" s="1">
-        <v>42005</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>42036</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>42064</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>42095</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>42125</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>42156</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>42186</v>
-      </c>
-      <c r="AJ66" s="1">
-        <v>42217</v>
-      </c>
-      <c r="AK66" s="1">
-        <v>42248</v>
-      </c>
-      <c r="AL66" s="1">
-        <v>42278</v>
-      </c>
-      <c r="AM66" s="1">
-        <v>42309</v>
-      </c>
-      <c r="AN66" s="1">
-        <v>42339</v>
-      </c>
-      <c r="AO66" s="1">
-        <v>42370</v>
-      </c>
-      <c r="AP66" s="1">
-        <v>42401</v>
-      </c>
-      <c r="AQ66" s="1">
-        <v>42430</v>
-      </c>
-      <c r="AR66" s="1">
-        <v>42461</v>
-      </c>
-      <c r="AS66" s="1">
-        <v>42491</v>
-      </c>
-      <c r="AT66" s="1">
-        <v>42522</v>
-      </c>
-      <c r="AU66" s="1">
-        <v>42552</v>
-      </c>
-      <c r="AV66" s="1">
-        <v>42583</v>
-      </c>
-      <c r="AW66" s="1">
-        <v>42614</v>
-      </c>
-      <c r="AX66" s="1">
-        <v>42644</v>
-      </c>
-      <c r="AY66" s="1">
-        <v>42675</v>
-      </c>
-      <c r="AZ66" s="1">
-        <v>42705</v>
-      </c>
-      <c r="BA66" s="1">
-        <v>42736</v>
-      </c>
-      <c r="BB66" s="1">
-        <v>42767</v>
-      </c>
-      <c r="BC66" s="1">
-        <v>42795</v>
-      </c>
-      <c r="BD66" s="1">
-        <v>42826</v>
-      </c>
-      <c r="BE66" s="1">
-        <v>42856</v>
-      </c>
-      <c r="BF66" s="1">
-        <v>42887</v>
-      </c>
-      <c r="BG66" s="1">
-        <v>42675</v>
-      </c>
-      <c r="BH66">
-        <v>-5</v>
-      </c>
-      <c r="BI66" s="1">
-        <v>42979</v>
-      </c>
-      <c r="BJ66" s="1">
-        <v>43009</v>
-      </c>
-      <c r="BK66" s="1">
-        <v>43040</v>
-      </c>
-      <c r="BL66" s="1">
-        <v>43070</v>
-      </c>
-      <c r="BM66" s="1">
-        <v>43101</v>
-      </c>
-      <c r="BN66" s="1">
-        <v>42036</v>
-      </c>
-      <c r="BO66">
-        <v>4</v>
-      </c>
-      <c r="BP66" s="1">
-        <v>43191</v>
-      </c>
-      <c r="BQ66" s="1">
-        <v>43221</v>
-      </c>
-      <c r="BR66" s="1">
-        <v>43252</v>
-      </c>
-      <c r="BS66" s="1">
-        <v>43282</v>
-      </c>
-      <c r="BT66" s="1">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="67" spans="6:72">
-      <c r="F67">
-        <f t="shared" ref="F67:AK67" si="1">F6</f>
-        <v>0</v>
       </c>
       <c r="G67">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J67">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="N67">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="P67">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="R67">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S67">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T67">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U67">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="V67">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="W67">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="X67">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y67">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="Z67">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AA67">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>3</v>
       </c>
       <c r="AB67">
         <f t="shared" si="1"/>
@@ -11339,59 +11385,59 @@
       </c>
       <c r="AC67">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD67">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="AE67">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="AF67">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH67">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="AI67">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="AJ67">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="AK67">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" ref="AK67:BS67" si="2">AK6</f>
+        <v>0</v>
       </c>
       <c r="AL67">
-        <f t="shared" ref="AL67:BT67" si="2">AL6</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AM67">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AN67">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP67">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="AQ67">
         <f t="shared" si="2"/>
@@ -11399,7 +11445,7 @@
       </c>
       <c r="AR67">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="AS67">
         <f t="shared" si="2"/>
@@ -11407,91 +11453,91 @@
       </c>
       <c r="AT67">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW67">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="AX67">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="AY67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="AZ67">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="BA67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB67">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="BC67">
         <f t="shared" si="2"/>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="BD67">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="BE67">
         <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="BF67">
+        <v>-3</v>
+      </c>
+      <c r="BF67" s="1">
+        <v>41791</v>
+      </c>
+      <c r="BG67">
+        <v>-5</v>
+      </c>
+      <c r="BH67">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="BI67">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="BJ67">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="BK67">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="BL67">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="BG67" s="1">
-        <v>41791</v>
-      </c>
-      <c r="BH67">
-        <v>-5</v>
-      </c>
-      <c r="BI67">
+      <c r="BM67" s="1">
+        <v>42309</v>
+      </c>
+      <c r="BN67">
+        <v>4</v>
+      </c>
+      <c r="BO67">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="BJ67">
-        <f t="shared" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="BK67">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="BL67">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="BM67">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-      <c r="BN67" s="1">
-        <v>42309</v>
-      </c>
-      <c r="BO67">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="BP67">
         <f t="shared" si="2"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BQ67">
         <f t="shared" si="2"/>
@@ -11499,376 +11545,372 @@
       </c>
       <c r="BR67">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BS67">
         <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="68" spans="5:71">
+      <c r="BF68" s="1">
+        <v>41426</v>
+      </c>
+      <c r="BG68">
+        <v>-5</v>
+      </c>
+      <c r="BM68" s="1">
+        <v>42401</v>
+      </c>
+      <c r="BN68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="5:71">
+      <c r="BF69" s="1">
+        <v>43160</v>
+      </c>
+      <c r="BG69">
+        <v>-6</v>
+      </c>
+      <c r="BM69" s="1">
+        <v>42614</v>
+      </c>
+      <c r="BN69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="5:71">
+      <c r="BF70" s="1">
+        <v>41883</v>
+      </c>
+      <c r="BG70">
+        <v>-6</v>
+      </c>
+      <c r="BM70" s="1">
+        <v>42948</v>
+      </c>
+      <c r="BN70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:71">
+      <c r="BF71" s="1">
+        <v>42979</v>
+      </c>
+      <c r="BG71">
+        <v>-7</v>
+      </c>
+      <c r="BM71" s="1">
+        <v>42095</v>
+      </c>
+      <c r="BN71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="5:71">
+      <c r="BF72" s="1">
+        <v>42767</v>
+      </c>
+      <c r="BG72">
+        <v>-7</v>
+      </c>
+      <c r="BM72" s="1">
+        <v>42583</v>
+      </c>
+      <c r="BN72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="5:71">
+      <c r="E73" s="1"/>
+      <c r="BF73" s="1">
+        <v>42614</v>
+      </c>
+      <c r="BG73">
+        <v>-7</v>
+      </c>
+      <c r="BM73" s="1">
+        <v>42675</v>
+      </c>
+      <c r="BN73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="5:71">
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="BF74" s="1">
+        <v>42156</v>
+      </c>
+      <c r="BG74">
+        <v>-7</v>
+      </c>
+      <c r="BM74" s="1">
+        <v>42736</v>
+      </c>
+      <c r="BN74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="5:71">
+      <c r="E75" s="1"/>
+      <c r="BF75" s="1">
+        <v>42036</v>
+      </c>
+      <c r="BG75">
+        <v>-8</v>
+      </c>
+      <c r="BM75" s="1">
+        <v>42979</v>
+      </c>
+      <c r="BN75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="5:71">
+      <c r="E76" s="1"/>
+      <c r="BF76" s="1">
+        <v>41913</v>
+      </c>
+      <c r="BG76">
+        <v>-8</v>
+      </c>
+      <c r="BM76" s="1">
+        <v>42248</v>
+      </c>
+      <c r="BN76">
         <v>6</v>
       </c>
-      <c r="BT67">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="68" spans="6:72">
-      <c r="BG68" s="1">
-        <v>41426</v>
-      </c>
-      <c r="BH68">
-        <v>-5</v>
-      </c>
-      <c r="BN68" s="1">
-        <v>42401</v>
-      </c>
-      <c r="BO68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="6:72">
-      <c r="BG69" s="1">
-        <v>43160</v>
-      </c>
-      <c r="BH69">
-        <v>-6</v>
-      </c>
-      <c r="BN69" s="1">
-        <v>42614</v>
-      </c>
-      <c r="BO69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="6:72">
-      <c r="BG70" s="1">
+    </row>
+    <row r="77" spans="5:71">
+      <c r="E77" s="1"/>
+      <c r="BF77" s="1">
+        <v>41579</v>
+      </c>
+      <c r="BG77">
+        <v>-10</v>
+      </c>
+      <c r="BM77" s="1">
+        <v>43282</v>
+      </c>
+      <c r="BN77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="5:71">
+      <c r="E78" s="1"/>
+      <c r="BF78" s="1">
+        <v>42887</v>
+      </c>
+      <c r="BG78">
+        <v>-13</v>
+      </c>
+      <c r="BM78" s="1">
         <v>41883</v>
       </c>
-      <c r="BH70">
-        <v>-6</v>
-      </c>
-      <c r="BN70" s="1">
-        <v>42948</v>
-      </c>
-      <c r="BO70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="6:72">
-      <c r="BG71" s="1">
-        <v>42979</v>
-      </c>
-      <c r="BH71">
-        <v>-7</v>
-      </c>
-      <c r="BN71" s="1">
-        <v>42095</v>
-      </c>
-      <c r="BO71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="6:72">
-      <c r="BG72" s="1">
-        <v>42767</v>
-      </c>
-      <c r="BH72">
-        <v>-7</v>
-      </c>
-      <c r="BN72" s="1">
-        <v>42583</v>
-      </c>
-      <c r="BO72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="6:72">
-      <c r="F73" s="1"/>
-      <c r="BG73" s="1">
-        <v>42614</v>
-      </c>
-      <c r="BH73">
-        <v>-7</v>
-      </c>
-      <c r="BN73" s="1">
-        <v>42675</v>
-      </c>
-      <c r="BO73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="6:72">
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="BG74" s="1">
-        <v>42156</v>
-      </c>
-      <c r="BH74">
-        <v>-7</v>
-      </c>
-      <c r="BN74" s="1">
-        <v>42736</v>
-      </c>
-      <c r="BO74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="6:72">
-      <c r="F75" s="1"/>
-      <c r="BG75" s="1">
-        <v>42036</v>
-      </c>
-      <c r="BH75">
-        <v>-8</v>
-      </c>
-      <c r="BN75" s="1">
-        <v>42979</v>
-      </c>
-      <c r="BO75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="6:72">
-      <c r="F76" s="1"/>
-      <c r="BG76" s="1">
-        <v>41913</v>
-      </c>
-      <c r="BH76">
-        <v>-8</v>
-      </c>
-      <c r="BN76" s="1">
-        <v>42248</v>
-      </c>
-      <c r="BO76">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="6:72">
-      <c r="F77" s="1"/>
-      <c r="BG77" s="1">
-        <v>41579</v>
-      </c>
-      <c r="BH77">
-        <v>-10</v>
-      </c>
-      <c r="BN77" s="1">
-        <v>43282</v>
-      </c>
-      <c r="BO77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="6:72">
-      <c r="F78" s="1"/>
-      <c r="BG78" s="1">
-        <v>42887</v>
-      </c>
-      <c r="BH78">
-        <v>-13</v>
-      </c>
-      <c r="BN78" s="1">
-        <v>41883</v>
-      </c>
-      <c r="BO78">
+      <c r="BN78">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="6:72">
-      <c r="F79" s="1"/>
-      <c r="BG79" s="1">
+    <row r="79" spans="5:71">
+      <c r="E79" s="1"/>
+      <c r="BF79" s="1">
         <v>43313</v>
       </c>
-      <c r="BN79" s="1">
+      <c r="BM79" s="1">
         <v>43040</v>
       </c>
-      <c r="BO79">
+      <c r="BN79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="6:72">
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="6:6">
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="6:6">
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="6:6">
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="6:6">
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="6:6">
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="6:6">
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="6:6">
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="6:6">
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="6:6">
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="6:6">
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="6:6">
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="6:6">
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="6:6">
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="6:6">
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="6:6">
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="6:6">
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="6:6">
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="6:6">
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="6:6">
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="6:6">
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="6:6">
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="6:6">
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="6:6">
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="6:6">
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="6:6">
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="6:6">
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="6:6">
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="6:6">
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="6:6">
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="6:6">
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="6:6">
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="6:6">
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="6:6">
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="6:6">
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="6:6">
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="6:6">
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="6:6">
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="6:6">
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="6:6">
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="6:6">
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="6:6">
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="6:6">
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="6:6">
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="6:6">
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="6:6">
-      <c r="F139" s="1"/>
+    <row r="80" spans="5:71">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="BN13:BO79">
-    <sortCondition ref="BO13:BO79"/>
+  <sortState ref="BM13:BN79">
+    <sortCondition ref="BN13:BN79"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F6:BT6">
+  <conditionalFormatting sqref="E6:BS6">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -11880,7 +11922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67:BF67 BI67:BM67 BP67:BT67">
+  <conditionalFormatting sqref="E67:BE67 BH67:BL67 BO67:BS67">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11892,7 +11934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
+  <conditionalFormatting sqref="F73">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -13580,7 +13622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C885BAC-55F4-4E05-AB4D-BB68BBE0B63B}">
   <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -14483,8 +14525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2867192-2AD2-45D4-A5D8-44F12C176909}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -14502,9 +14544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" t="s">
+      <c r="A1" s="22" t="s">
         <v>366</v>
       </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="H1" s="1" t="s">
         <v>367</v>
       </c>
@@ -14516,16 +14562,17 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="20">
+      <c r="A2" s="27">
         <v>43009</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="22">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23">
         <v>42887</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="22">
         <v>-13</v>
       </c>
       <c r="H2" s="1">
@@ -14552,21 +14599,22 @@
       <c r="R2">
         <v>-13</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="26">
         <v>41456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="20">
+      <c r="A3" s="27">
         <v>41852</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23">
         <v>41579</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="22">
         <v>-10</v>
       </c>
       <c r="H3" s="1">
@@ -14593,21 +14641,22 @@
       <c r="R3">
         <v>-10</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="26">
         <v>41487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="1">
+      <c r="A4" s="23">
         <v>43252</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <v>6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23">
         <v>41913</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="22">
         <v>-8</v>
       </c>
       <c r="H4" s="1">
@@ -14634,21 +14683,22 @@
       <c r="R4">
         <v>-8</v>
       </c>
-      <c r="T4" s="20">
+      <c r="T4" s="26">
         <v>41518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="20">
+      <c r="A5" s="27">
         <v>42217</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23">
         <v>42036</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="22">
         <v>-8</v>
       </c>
       <c r="H5" s="1">
@@ -14675,21 +14725,22 @@
       <c r="R5">
         <v>-8</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="26">
         <v>41852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="20">
+      <c r="A6" s="27">
         <v>42948</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23">
         <v>42156</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="22">
         <v>-7</v>
       </c>
       <c r="H6" s="20">
@@ -14716,21 +14767,22 @@
       <c r="R6">
         <v>-7</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="26">
         <v>41974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1">
+      <c r="A7" s="23">
         <v>42705</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="22"/>
+      <c r="D7" s="23">
         <v>42614</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="22">
         <v>-7</v>
       </c>
       <c r="H7" s="1">
@@ -14757,21 +14809,22 @@
       <c r="R7">
         <v>-7</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="26">
         <v>42278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1">
+      <c r="A8" s="23">
         <v>42644</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="22"/>
+      <c r="D8" s="23">
         <v>42767</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="22">
         <v>-7</v>
       </c>
       <c r="H8" s="1">
@@ -14798,21 +14851,22 @@
       <c r="R8">
         <v>-7</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="26">
         <v>42339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="20">
+      <c r="A9" s="27">
         <v>42552</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="C9" s="22"/>
+      <c r="D9" s="27">
         <v>42979</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="22">
         <v>-7</v>
       </c>
       <c r="H9" s="20">
@@ -14839,21 +14893,22 @@
       <c r="R9">
         <v>-7</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="26">
         <v>42522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1">
+      <c r="A10" s="23">
         <v>42064</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23">
         <v>41883</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="22">
         <v>-6</v>
       </c>
       <c r="H10" s="1">
@@ -14880,21 +14935,22 @@
       <c r="R10">
         <v>-6</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="26">
         <v>42552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1">
+      <c r="A11" s="23">
         <v>42917</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="22">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23">
         <v>43160</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="22">
         <v>-6</v>
       </c>
       <c r="H11" s="20">
@@ -14921,21 +14977,22 @@
       <c r="R11">
         <v>-6</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="26">
         <v>42583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="20">
+      <c r="A12" s="27">
         <v>42583</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="22">
         <v>4</v>
       </c>
-      <c r="D12" s="17">
+      <c r="C12" s="22"/>
+      <c r="D12" s="28">
         <v>41426</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="29">
         <v>-5</v>
       </c>
       <c r="H12" s="1">
@@ -14962,21 +15019,22 @@
       <c r="R12">
         <v>-5</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="26">
         <v>42948</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1">
+      <c r="A13" s="23">
         <v>42370</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="22">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23">
         <v>41791</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="22">
         <v>-5</v>
       </c>
       <c r="H13" s="1">
@@ -15003,21 +15061,22 @@
       <c r="R13">
         <v>-5</v>
       </c>
-      <c r="T13" s="20">
+      <c r="T13" s="26">
         <v>42979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="20">
+      <c r="A14" s="27">
         <v>42278</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="22">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23">
         <v>42675</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="22">
         <v>-5</v>
       </c>
       <c r="H14" s="17">
@@ -15044,21 +15103,22 @@
       <c r="R14" s="21">
         <v>-5</v>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="26">
         <v>43009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="1">
+      <c r="A15" s="23">
         <v>42005</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="22">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="C15" s="22"/>
+      <c r="D15" s="23">
         <v>41760</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="22">
         <v>-4</v>
       </c>
       <c r="H15" s="1">
@@ -15087,16 +15147,17 @@
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="1">
+      <c r="A16" s="23">
         <v>41821</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="22">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="C16" s="22"/>
+      <c r="D16" s="23">
         <v>42186</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="22">
         <v>-4</v>
       </c>
       <c r="H16" s="20">
@@ -15125,16 +15186,17 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="1">
+      <c r="A17" s="23">
         <v>41730</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="22">
         <v>4</v>
       </c>
-      <c r="D17" s="1">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23">
         <v>42401</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="22">
         <v>-4</v>
       </c>
       <c r="H17" s="1">
@@ -15163,16 +15225,17 @@
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="17">
+      <c r="A18" s="28">
         <v>41609</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="29">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
         <v>42430</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="22">
         <v>-4</v>
       </c>
       <c r="H18" s="1">
@@ -15365,6 +15428,7 @@
       <c r="E23">
         <v>-3</v>
       </c>
+      <c r="F23" s="22"/>
       <c r="H23" s="1">
         <v>42005</v>
       </c>
@@ -15620,6 +15684,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15628,7 +15693,7 @@
   <dimension ref="A1:AS124"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -21584,7 +21649,7 @@
   <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Excel/内閣支持率.xlsx
+++ b/Excel/内閣支持率.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576664C3-D946-4973-A501-9FA489172639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A80DE0-A068-45C4-BC22-E0E939031547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="383">
   <si>
     <t>安倍内閣支持率</t>
     <rPh sb="0" eb="2">
@@ -1296,15 +1296,91 @@
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ないデータのところは取り除いている</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先行</t>
+    <rPh sb="0" eb="2">
+      <t>センコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遅行</t>
+    <rPh sb="0" eb="2">
+      <t>チコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013_03_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013_04_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013,02,01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013,03,01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2013-02-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="185" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,6 +1411,18 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1455,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1490,6 +1578,19 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8671,8 +8772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:EB139"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="F1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11956,8 +12057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE699A78-4501-493D-9559-7661C74B52EF}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13620,19 +13721,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C885BAC-55F4-4E05-AB4D-BB68BBE0B63B}">
-  <dimension ref="A2:E53"/>
+  <dimension ref="A1:AA139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" style="36" customWidth="1"/>
+    <col min="13" max="13" width="15.125" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="34" customWidth="1"/>
+    <col min="25" max="25" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="19">
+    <row r="1" spans="1:27">
+      <c r="B1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="36">
         <v>41306</v>
       </c>
       <c r="B2" s="18">
@@ -13647,9 +13768,16 @@
       <c r="E2" s="18">
         <v>409</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19">
+      <c r="F2" t="str">
+        <f>TEXT(A2,"0000-0-0")</f>
+        <v>0413-0-6</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="36">
         <v>41334</v>
       </c>
       <c r="B3" s="18">
@@ -13664,9 +13792,29 @@
       <c r="E3" s="18">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19">
+      <c r="H3" t="s">
+        <v>373</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="U3" s="30">
+        <v>41306</v>
+      </c>
+      <c r="V3" s="19">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="36">
         <v>41365</v>
       </c>
       <c r="B4" s="18">
@@ -13681,9 +13829,27 @@
       <c r="E4" s="18">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="M4" s="31">
+        <v>41306</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>2</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>409</v>
+      </c>
+      <c r="U4" s="30">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="36">
         <v>41395</v>
       </c>
       <c r="B5" s="18">
@@ -13698,9 +13864,27 @@
       <c r="E5" s="18">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="M5" s="31">
+        <v>41334</v>
+      </c>
+      <c r="N5" s="18">
+        <v>2</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>304</v>
+      </c>
+      <c r="U5" s="30">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="36">
         <v>41426</v>
       </c>
       <c r="B6" s="18">
@@ -13715,9 +13899,27 @@
       <c r="E6" s="18">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="M6" s="31">
+        <v>41365</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>287</v>
+      </c>
+      <c r="U6" s="30">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="36">
         <v>41548</v>
       </c>
       <c r="B7" s="18">
@@ -13732,9 +13934,27 @@
       <c r="E7" s="18">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19">
+      <c r="M7" s="31">
+        <v>41395</v>
+      </c>
+      <c r="N7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="18">
+        <v>-3</v>
+      </c>
+      <c r="P7" s="18">
+        <v>-5</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>260</v>
+      </c>
+      <c r="U7" s="30">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="36">
         <v>41579</v>
       </c>
       <c r="B8" s="18">
@@ -13749,9 +13969,30 @@
       <c r="E8" s="18">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19">
+      <c r="M8" s="31">
+        <v>41426</v>
+      </c>
+      <c r="N8" s="18">
+        <v>-3</v>
+      </c>
+      <c r="O8" s="18">
+        <v>-5</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>58</v>
+      </c>
+      <c r="U8" s="30">
+        <v>41548</v>
+      </c>
+      <c r="AA8" s="33">
+        <v>41183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="36">
         <v>41609</v>
       </c>
       <c r="B9" s="18">
@@ -13766,9 +14007,30 @@
       <c r="E9" s="18">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19">
+      <c r="M9" s="31">
+        <v>41548</v>
+      </c>
+      <c r="N9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="18">
+        <v>2</v>
+      </c>
+      <c r="P9" s="18">
+        <v>-10</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>158</v>
+      </c>
+      <c r="U9" s="30">
+        <v>41579</v>
+      </c>
+      <c r="AA9" s="33">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="36">
         <v>41640</v>
       </c>
       <c r="B10" s="18">
@@ -13783,9 +14045,30 @@
       <c r="E10" s="18">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19">
+      <c r="M10" s="31">
+        <v>41579</v>
+      </c>
+      <c r="N10" s="18">
+        <v>2</v>
+      </c>
+      <c r="O10" s="18">
+        <v>-10</v>
+      </c>
+      <c r="P10" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>88</v>
+      </c>
+      <c r="U10" s="30">
+        <v>41609</v>
+      </c>
+      <c r="AA10" s="33">
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="36">
         <v>41671</v>
       </c>
       <c r="B11" s="18">
@@ -13800,9 +14083,30 @@
       <c r="E11" s="18">
         <v>467</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19">
+      <c r="M11" s="31">
+        <v>41609</v>
+      </c>
+      <c r="N11" s="18">
+        <v>-10</v>
+      </c>
+      <c r="O11" s="18">
+        <v>4</v>
+      </c>
+      <c r="P11" s="18">
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>37</v>
+      </c>
+      <c r="U11" s="30">
+        <v>41640</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="36">
         <v>41699</v>
       </c>
       <c r="B12" s="18">
@@ -13817,9 +14121,30 @@
       <c r="E12" s="18">
         <v>385</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="19">
+      <c r="M12" s="31">
+        <v>41640</v>
+      </c>
+      <c r="N12" s="18">
+        <v>4</v>
+      </c>
+      <c r="O12" s="18">
+        <v>-2</v>
+      </c>
+      <c r="P12" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>272</v>
+      </c>
+      <c r="U12" s="30">
+        <v>41671</v>
+      </c>
+      <c r="AA12" s="33">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="36">
         <v>41730</v>
       </c>
       <c r="B13" s="18">
@@ -13834,9 +14159,30 @@
       <c r="E13" s="18">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19">
+      <c r="M13" s="31">
+        <v>41671</v>
+      </c>
+      <c r="N13" s="18">
+        <v>-2</v>
+      </c>
+      <c r="O13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>467</v>
+      </c>
+      <c r="U13" s="30">
+        <v>41699</v>
+      </c>
+      <c r="AA13" s="33">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="36">
         <v>41760</v>
       </c>
       <c r="B14" s="18">
@@ -13851,9 +14197,30 @@
       <c r="E14" s="18">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="19">
+      <c r="M14" s="31">
+        <v>41699</v>
+      </c>
+      <c r="N14" s="18">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1</v>
+      </c>
+      <c r="P14" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>385</v>
+      </c>
+      <c r="U14" s="30">
+        <v>41730</v>
+      </c>
+      <c r="AA14" s="33">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="36">
         <v>41791</v>
       </c>
       <c r="B15" s="18">
@@ -13868,9 +14235,27 @@
       <c r="E15" s="18">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="19">
+      <c r="M15" s="31">
+        <v>41730</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18">
+        <v>4</v>
+      </c>
+      <c r="P15" s="18">
+        <v>-4</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>116</v>
+      </c>
+      <c r="AA15" s="33">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="36">
         <v>41821</v>
       </c>
       <c r="B16" s="18">
@@ -13885,9 +14270,28 @@
       <c r="E16" s="18">
         <v>106</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="19">
+      <c r="M16" s="31">
+        <v>41760</v>
+      </c>
+      <c r="N16" s="18">
+        <v>4</v>
+      </c>
+      <c r="O16" s="18">
+        <v>-4</v>
+      </c>
+      <c r="P16" s="18">
+        <v>-5</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>180</v>
+      </c>
+      <c r="Y16" s="19"/>
+      <c r="AA16" s="33">
+        <v>41306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="36">
         <v>41883</v>
       </c>
       <c r="B17" s="18">
@@ -13902,9 +14306,30 @@
       <c r="E17" s="18">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="19">
+      <c r="M17" s="31">
+        <v>41791</v>
+      </c>
+      <c r="N17" s="18">
+        <v>-4</v>
+      </c>
+      <c r="O17" s="18">
+        <v>-5</v>
+      </c>
+      <c r="P17" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>84</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="36">
         <v>41913</v>
       </c>
       <c r="B18" s="18">
@@ -13919,9 +14344,30 @@
       <c r="E18" s="18">
         <v>301</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="19">
+      <c r="M18" s="31">
+        <v>41821</v>
+      </c>
+      <c r="N18" s="18">
+        <v>-5</v>
+      </c>
+      <c r="O18" s="18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>106</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA18" s="33">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="36">
         <v>41944</v>
       </c>
       <c r="B19" s="18">
@@ -13936,9 +14382,30 @@
       <c r="E19" s="18">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="19">
+      <c r="M19" s="31">
+        <v>41883</v>
+      </c>
+      <c r="N19" s="18">
+        <v>7</v>
+      </c>
+      <c r="O19" s="18">
+        <v>-6</v>
+      </c>
+      <c r="P19" s="18">
+        <v>-8</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>68</v>
+      </c>
+      <c r="V19" s="32">
+        <v>41306</v>
+      </c>
+      <c r="AA19" s="33">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="36">
         <v>42005</v>
       </c>
       <c r="B20" s="18">
@@ -13953,9 +14420,30 @@
       <c r="E20" s="18">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="19">
+      <c r="M20" s="31">
+        <v>41913</v>
+      </c>
+      <c r="N20" s="18">
+        <v>-6</v>
+      </c>
+      <c r="O20" s="18">
+        <v>-8</v>
+      </c>
+      <c r="P20" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>301</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA20" s="33">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="36">
         <v>42036</v>
       </c>
       <c r="B21" s="18">
@@ -13970,9 +14458,30 @@
       <c r="E21" s="18">
         <v>675</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="19">
+      <c r="M21" s="31">
+        <v>41944</v>
+      </c>
+      <c r="N21" s="18">
+        <v>-8</v>
+      </c>
+      <c r="O21" s="18">
+        <v>3</v>
+      </c>
+      <c r="P21" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>79</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA21" s="33">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="36">
         <v>42064</v>
       </c>
       <c r="B22" s="18">
@@ -13987,9 +14496,27 @@
       <c r="E22" s="18">
         <v>385</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="19">
+      <c r="M22" s="31">
+        <v>42005</v>
+      </c>
+      <c r="N22" s="18">
+        <v>3</v>
+      </c>
+      <c r="O22" s="18">
+        <v>4</v>
+      </c>
+      <c r="P22" s="18">
+        <v>-8</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>132</v>
+      </c>
+      <c r="AA22" s="33">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="36">
         <v>42095</v>
       </c>
       <c r="B23" s="18">
@@ -14004,9 +14531,27 @@
       <c r="E23" s="18">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="19">
+      <c r="M23" s="31">
+        <v>42036</v>
+      </c>
+      <c r="N23" s="18">
+        <v>4</v>
+      </c>
+      <c r="O23" s="18">
+        <v>-8</v>
+      </c>
+      <c r="P23" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>675</v>
+      </c>
+      <c r="AA23" s="33">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="36">
         <v>42125</v>
       </c>
       <c r="B24" s="18">
@@ -14021,9 +14566,27 @@
       <c r="E24" s="18">
         <v>226</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="19">
+      <c r="M24" s="31">
+        <v>42064</v>
+      </c>
+      <c r="N24" s="18">
+        <v>-8</v>
+      </c>
+      <c r="O24" s="18">
+        <v>5</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>385</v>
+      </c>
+      <c r="AA24" s="33">
+        <v>41365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="36">
         <v>42156</v>
       </c>
       <c r="B25" s="18">
@@ -14038,9 +14601,27 @@
       <c r="E25" s="18">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="19">
+      <c r="M25" s="31">
+        <v>42095</v>
+      </c>
+      <c r="N25" s="18">
+        <v>5</v>
+      </c>
+      <c r="O25" s="18">
+        <v>0</v>
+      </c>
+      <c r="P25" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>98</v>
+      </c>
+      <c r="AA25" s="33">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="36">
         <v>42186</v>
       </c>
       <c r="B26" s="18">
@@ -14055,9 +14636,27 @@
       <c r="E26" s="18">
         <v>387</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="19">
+      <c r="M26" s="31">
+        <v>42125</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>-3</v>
+      </c>
+      <c r="P26" s="18">
+        <v>-7</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>226</v>
+      </c>
+      <c r="AA26" s="33">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="36">
         <v>42217</v>
       </c>
       <c r="B27" s="18">
@@ -14072,9 +14671,27 @@
       <c r="E27" s="18">
         <v>290</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="19">
+      <c r="M27" s="31">
+        <v>42156</v>
+      </c>
+      <c r="N27" s="18">
+        <v>-3</v>
+      </c>
+      <c r="O27" s="18">
+        <v>-7</v>
+      </c>
+      <c r="P27" s="18">
+        <v>-4</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>272</v>
+      </c>
+      <c r="AA27" s="33">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="36">
         <v>42248</v>
       </c>
       <c r="B28" s="18">
@@ -14089,9 +14706,27 @@
       <c r="E28" s="18">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="19">
+      <c r="M28" s="31">
+        <v>42186</v>
+      </c>
+      <c r="N28" s="18">
+        <v>-7</v>
+      </c>
+      <c r="O28" s="18">
+        <v>-4</v>
+      </c>
+      <c r="P28" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>387</v>
+      </c>
+      <c r="AA28" s="33">
+        <v>41395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="36">
         <v>42309</v>
       </c>
       <c r="B29" s="18">
@@ -14106,9 +14741,27 @@
       <c r="E29" s="18">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="19">
+      <c r="M29" s="31">
+        <v>42217</v>
+      </c>
+      <c r="N29" s="18">
+        <v>-4</v>
+      </c>
+      <c r="O29" s="18">
+        <v>6</v>
+      </c>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>290</v>
+      </c>
+      <c r="AA29" s="33">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="36">
         <v>42370</v>
       </c>
       <c r="B30" s="18">
@@ -14123,9 +14776,27 @@
       <c r="E30" s="18">
         <v>549</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="19">
+      <c r="M30" s="31">
+        <v>42248</v>
+      </c>
+      <c r="N30" s="18">
+        <v>6</v>
+      </c>
+      <c r="O30" s="18">
+        <v>0</v>
+      </c>
+      <c r="P30" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>57</v>
+      </c>
+      <c r="AA30" s="33">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="36">
         <v>42401</v>
       </c>
       <c r="B31" s="18">
@@ -14140,9 +14811,27 @@
       <c r="E31" s="18">
         <v>482</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19">
+      <c r="M31" s="31">
+        <v>42309</v>
+      </c>
+      <c r="N31" s="18">
+        <v>4</v>
+      </c>
+      <c r="O31" s="18">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>106</v>
+      </c>
+      <c r="AA31" s="33">
+        <v>41548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="36">
         <v>42430</v>
       </c>
       <c r="B32" s="18">
@@ -14157,9 +14846,27 @@
       <c r="E32" s="18">
         <v>462</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="19">
+      <c r="M32" s="31">
+        <v>42370</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18">
+        <v>4</v>
+      </c>
+      <c r="P32" s="18">
+        <v>-4</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>549</v>
+      </c>
+      <c r="AA32" s="33">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="36">
         <v>42461</v>
       </c>
       <c r="B33" s="18">
@@ -14174,9 +14881,27 @@
       <c r="E33" s="18">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="19">
+      <c r="M33" s="31">
+        <v>42401</v>
+      </c>
+      <c r="N33" s="18">
+        <v>4</v>
+      </c>
+      <c r="O33" s="18">
+        <v>-4</v>
+      </c>
+      <c r="P33" s="18">
+        <v>-4</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>482</v>
+      </c>
+      <c r="AA33" s="33">
+        <v>41609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="36">
         <v>42491</v>
       </c>
       <c r="B34" s="18">
@@ -14191,9 +14916,27 @@
       <c r="E34" s="18">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="19">
+      <c r="M34" s="31">
+        <v>42430</v>
+      </c>
+      <c r="N34" s="18">
+        <v>-4</v>
+      </c>
+      <c r="O34" s="18">
+        <v>-4</v>
+      </c>
+      <c r="P34" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>462</v>
+      </c>
+      <c r="AA34" s="33">
+        <v>41640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="36">
         <v>42614</v>
       </c>
       <c r="B35" s="18">
@@ -14208,9 +14951,27 @@
       <c r="E35" s="18">
         <v>242</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="19">
+      <c r="M35" s="31">
+        <v>42461</v>
+      </c>
+      <c r="N35" s="18">
+        <v>-4</v>
+      </c>
+      <c r="O35" s="18">
+        <v>3</v>
+      </c>
+      <c r="P35" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>106</v>
+      </c>
+      <c r="AA35" s="33">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="36">
         <v>42644</v>
       </c>
       <c r="B36" s="18">
@@ -14225,9 +14986,27 @@
       <c r="E36" s="18">
         <v>338</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="19">
+      <c r="M36" s="31">
+        <v>42491</v>
+      </c>
+      <c r="N36" s="18">
+        <v>3</v>
+      </c>
+      <c r="O36" s="18">
+        <v>3</v>
+      </c>
+      <c r="P36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>72</v>
+      </c>
+      <c r="AA36" s="33">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="36">
         <v>42675</v>
       </c>
       <c r="B37" s="18">
@@ -14242,9 +15021,27 @@
       <c r="E37" s="18">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="19">
+      <c r="M37" s="31">
+        <v>42614</v>
+      </c>
+      <c r="N37" s="18">
+        <v>4</v>
+      </c>
+      <c r="O37" s="18">
+        <v>-7</v>
+      </c>
+      <c r="P37" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>242</v>
+      </c>
+      <c r="AA37" s="33">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="36">
         <v>42705</v>
       </c>
       <c r="B38" s="18">
@@ -14259,9 +15056,27 @@
       <c r="E38" s="18">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="19">
+      <c r="M38" s="31">
+        <v>42644</v>
+      </c>
+      <c r="N38" s="18">
+        <v>-7</v>
+      </c>
+      <c r="O38" s="18">
+        <v>5</v>
+      </c>
+      <c r="P38" s="18">
+        <v>-5</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>338</v>
+      </c>
+      <c r="AA38" s="33">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="36">
         <v>42736</v>
       </c>
       <c r="B39" s="18">
@@ -14276,9 +15091,27 @@
       <c r="E39" s="18">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="19">
+      <c r="M39" s="31">
+        <v>42675</v>
+      </c>
+      <c r="N39" s="18">
+        <v>5</v>
+      </c>
+      <c r="O39" s="18">
+        <v>-5</v>
+      </c>
+      <c r="P39" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>239</v>
+      </c>
+      <c r="AA39" s="33">
+        <v>41671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="36">
         <v>42767</v>
       </c>
       <c r="B40" s="18">
@@ -14293,9 +15126,27 @@
       <c r="E40" s="18">
         <v>391</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="19">
+      <c r="M40" s="31">
+        <v>42705</v>
+      </c>
+      <c r="N40" s="18">
+        <v>-5</v>
+      </c>
+      <c r="O40" s="18">
+        <v>5</v>
+      </c>
+      <c r="P40" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="18">
+        <v>91</v>
+      </c>
+      <c r="AA40" s="33">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" s="36">
         <v>42795</v>
       </c>
       <c r="B41" s="18">
@@ -14310,9 +15161,27 @@
       <c r="E41" s="18">
         <v>357</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="19">
+      <c r="M41" s="31">
+        <v>42736</v>
+      </c>
+      <c r="N41" s="18">
+        <v>5</v>
+      </c>
+      <c r="O41" s="18">
+        <v>3</v>
+      </c>
+      <c r="P41" s="18">
+        <v>-7</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>142</v>
+      </c>
+      <c r="AA41" s="33">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" s="36">
         <v>42826</v>
       </c>
       <c r="B42" s="18">
@@ -14327,9 +15196,27 @@
       <c r="E42" s="18">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="19">
+      <c r="M42" s="31">
+        <v>42767</v>
+      </c>
+      <c r="N42" s="18">
+        <v>3</v>
+      </c>
+      <c r="O42" s="18">
+        <v>-7</v>
+      </c>
+      <c r="P42" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>391</v>
+      </c>
+      <c r="AA42" s="33">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" s="36">
         <v>42856</v>
       </c>
       <c r="B43" s="18">
@@ -14344,9 +15231,27 @@
       <c r="E43" s="18">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="19">
+      <c r="M43" s="31">
+        <v>42795</v>
+      </c>
+      <c r="N43" s="18">
+        <v>-7</v>
+      </c>
+      <c r="O43" s="18">
+        <v>2</v>
+      </c>
+      <c r="P43" s="18">
+        <v>-2</v>
+      </c>
+      <c r="Q43" s="18">
+        <v>357</v>
+      </c>
+      <c r="AA43" s="33">
+        <v>41699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" s="36">
         <v>42887</v>
       </c>
       <c r="B44" s="18">
@@ -14361,9 +15266,27 @@
       <c r="E44" s="18">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="19">
+      <c r="M44" s="31">
+        <v>42826</v>
+      </c>
+      <c r="N44" s="18">
+        <v>2</v>
+      </c>
+      <c r="O44" s="18">
+        <v>-2</v>
+      </c>
+      <c r="P44" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Q44" s="18">
+        <v>96</v>
+      </c>
+      <c r="AA44" s="33">
+        <v>41730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" s="36">
         <v>42917</v>
       </c>
       <c r="B45" s="18">
@@ -14378,9 +15301,27 @@
       <c r="E45" s="18">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="19">
+      <c r="M45" s="31">
+        <v>42856</v>
+      </c>
+      <c r="N45" s="18">
+        <v>-2</v>
+      </c>
+      <c r="O45" s="18">
+        <v>-3</v>
+      </c>
+      <c r="P45" s="18">
+        <v>-13</v>
+      </c>
+      <c r="Q45" s="18">
+        <v>101</v>
+      </c>
+      <c r="AA45" s="33">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" s="36">
         <v>43040</v>
       </c>
       <c r="B46" s="18">
@@ -14395,9 +15336,27 @@
       <c r="E46" s="18">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="19">
+      <c r="M46" s="31">
+        <v>42887</v>
+      </c>
+      <c r="N46" s="18">
+        <v>-3</v>
+      </c>
+      <c r="O46" s="18">
+        <v>-13</v>
+      </c>
+      <c r="P46" s="18">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>82</v>
+      </c>
+      <c r="AA46" s="33">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" s="36">
         <v>43070</v>
       </c>
       <c r="B47" s="18">
@@ -14412,9 +15371,27 @@
       <c r="E47" s="18">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="19">
+      <c r="M47" s="31">
+        <v>42917</v>
+      </c>
+      <c r="N47" s="18">
+        <v>-13</v>
+      </c>
+      <c r="O47" s="18">
+        <v>4</v>
+      </c>
+      <c r="P47" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="18">
+        <v>55</v>
+      </c>
+      <c r="AA47" s="33">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" s="36">
         <v>43101</v>
       </c>
       <c r="B48" s="18">
@@ -14429,9 +15406,27 @@
       <c r="E48" s="18">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="19">
+      <c r="M48" s="31">
+        <v>43040</v>
+      </c>
+      <c r="N48" s="18">
+        <v>9</v>
+      </c>
+      <c r="O48" s="18">
+        <v>3</v>
+      </c>
+      <c r="P48" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>146</v>
+      </c>
+      <c r="AA48" s="33">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
+      <c r="A49" s="36">
         <v>43132</v>
       </c>
       <c r="B49" s="18">
@@ -14446,9 +15441,27 @@
       <c r="E49" s="18">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="19">
+      <c r="M49" s="31">
+        <v>43070</v>
+      </c>
+      <c r="N49" s="18">
+        <v>3</v>
+      </c>
+      <c r="O49" s="18">
+        <v>-3</v>
+      </c>
+      <c r="P49" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="18">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="33">
+        <v>41883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
+      <c r="A50" s="36">
         <v>43160</v>
       </c>
       <c r="B50" s="18">
@@ -14463,9 +15476,27 @@
       <c r="E50" s="18">
         <v>300</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="19">
+      <c r="M50" s="31">
+        <v>43101</v>
+      </c>
+      <c r="N50" s="18">
+        <v>-3</v>
+      </c>
+      <c r="O50" s="18">
+        <v>0</v>
+      </c>
+      <c r="P50" s="18">
+        <v>-2</v>
+      </c>
+      <c r="Q50" s="18">
+        <v>84</v>
+      </c>
+      <c r="AA50" s="33">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" s="36">
         <v>43191</v>
       </c>
       <c r="B51" s="18">
@@ -14480,9 +15511,27 @@
       <c r="E51" s="18">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="19">
+      <c r="M51" s="31">
+        <v>43132</v>
+      </c>
+      <c r="N51" s="18">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18">
+        <v>-2</v>
+      </c>
+      <c r="P51" s="18">
+        <v>-6</v>
+      </c>
+      <c r="Q51" s="18">
+        <v>348</v>
+      </c>
+      <c r="AA51" s="33">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" s="36">
         <v>43221</v>
       </c>
       <c r="B52" s="18">
@@ -14497,9 +15546,27 @@
       <c r="E52" s="18">
         <v>244</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="19">
+      <c r="M52" s="31">
+        <v>43160</v>
+      </c>
+      <c r="N52" s="18">
+        <v>-2</v>
+      </c>
+      <c r="O52" s="18">
+        <v>-6</v>
+      </c>
+      <c r="P52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="18">
+        <v>300</v>
+      </c>
+      <c r="AA52" s="33">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="36">
         <v>43252</v>
       </c>
       <c r="B53" s="18">
@@ -14513,11 +15580,490 @@
       </c>
       <c r="E53" s="18">
         <v>197</v>
+      </c>
+      <c r="M53" s="31">
+        <v>43191</v>
+      </c>
+      <c r="N53" s="18">
+        <v>-6</v>
+      </c>
+      <c r="O53" s="18">
+        <v>0</v>
+      </c>
+      <c r="P53" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="18">
+        <v>90</v>
+      </c>
+      <c r="AA53" s="33">
+        <v>41944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
+      <c r="M54" s="31">
+        <v>43221</v>
+      </c>
+      <c r="N54" s="18">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="18">
+        <v>244</v>
+      </c>
+      <c r="AA54" s="33">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="M55" s="31">
+        <v>43252</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>6</v>
+      </c>
+      <c r="P55" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Q55" s="18">
+        <v>197</v>
+      </c>
+      <c r="AA55" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="AA56" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="AA57" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="AA58" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="AA59" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="AA60" s="33">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="AA61" s="33">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="AA62" s="33">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
+      <c r="AA63" s="33">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="AA64" s="33">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="65" spans="27:27">
+      <c r="AA65" s="33">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="66" spans="27:27">
+      <c r="AA66" s="33">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="67" spans="27:27">
+      <c r="AA67" s="33">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="68" spans="27:27">
+      <c r="AA68" s="33">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="69" spans="27:27">
+      <c r="AA69" s="33">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="70" spans="27:27">
+      <c r="AA70" s="33">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="71" spans="27:27">
+      <c r="AA71" s="33">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="72" spans="27:27">
+      <c r="AA72" s="33">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="73" spans="27:27">
+      <c r="AA73" s="33">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="74" spans="27:27">
+      <c r="AA74" s="33">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="75" spans="27:27">
+      <c r="AA75" s="33">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="76" spans="27:27">
+      <c r="AA76" s="33">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="77" spans="27:27">
+      <c r="AA77" s="33">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="78" spans="27:27">
+      <c r="AA78" s="33">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="79" spans="27:27">
+      <c r="AA79" s="33">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="80" spans="27:27">
+      <c r="AA80" s="33">
+        <v>42248</v>
+      </c>
+    </row>
+    <row r="81" spans="27:27">
+      <c r="AA81" s="33">
+        <v>42309</v>
+      </c>
+    </row>
+    <row r="82" spans="27:27">
+      <c r="AA82" s="33">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="83" spans="27:27">
+      <c r="AA83" s="33">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="84" spans="27:27">
+      <c r="AA84" s="33">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="85" spans="27:27">
+      <c r="AA85" s="33">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="86" spans="27:27">
+      <c r="AA86" s="33">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="87" spans="27:27">
+      <c r="AA87" s="33">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="88" spans="27:27">
+      <c r="AA88" s="33">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="89" spans="27:27">
+      <c r="AA89" s="33">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="90" spans="27:27">
+      <c r="AA90" s="33">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="91" spans="27:27">
+      <c r="AA91" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="92" spans="27:27">
+      <c r="AA92" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="93" spans="27:27">
+      <c r="AA93" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="94" spans="27:27">
+      <c r="AA94" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="95" spans="27:27">
+      <c r="AA95" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="96" spans="27:27">
+      <c r="AA96" s="33">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="97" spans="27:27">
+      <c r="AA97" s="33">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="98" spans="27:27">
+      <c r="AA98" s="33">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="99" spans="27:27">
+      <c r="AA99" s="33">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="100" spans="27:27">
+      <c r="AA100" s="33">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="101" spans="27:27">
+      <c r="AA101" s="33">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="102" spans="27:27">
+      <c r="AA102" s="33">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="103" spans="27:27">
+      <c r="AA103" s="33">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="104" spans="27:27">
+      <c r="AA104" s="33">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="105" spans="27:27">
+      <c r="AA105" s="33">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="106" spans="27:27">
+      <c r="AA106" s="33">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="107" spans="27:27">
+      <c r="AA107" s="33">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="108" spans="27:27">
+      <c r="AA108" s="33">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="109" spans="27:27">
+      <c r="AA109" s="33">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="110" spans="27:27">
+      <c r="AA110" s="33">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="111" spans="27:27">
+      <c r="AA111" s="33">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="112" spans="27:27">
+      <c r="AA112" s="33">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="113" spans="27:27">
+      <c r="AA113" s="33">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="114" spans="27:27">
+      <c r="AA114" s="33">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="115" spans="27:27">
+      <c r="AA115" s="33">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="116" spans="27:27">
+      <c r="AA116" s="33">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="117" spans="27:27">
+      <c r="AA117" s="33">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="118" spans="27:27">
+      <c r="AA118" s="33">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="119" spans="27:27">
+      <c r="AA119" s="33">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="120" spans="27:27">
+      <c r="AA120" s="33">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="121" spans="27:27">
+      <c r="AA121" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="122" spans="27:27">
+      <c r="AA122" s="33">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="123" spans="27:27">
+      <c r="AA123" s="33">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="124" spans="27:27">
+      <c r="AA124" s="33">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="125" spans="27:27">
+      <c r="AA125" s="33">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="126" spans="27:27">
+      <c r="AA126" s="33">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="127" spans="27:27">
+      <c r="AA127" s="33">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="128" spans="27:27">
+      <c r="AA128" s="33">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="129" spans="27:27">
+      <c r="AA129" s="33">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="130" spans="27:27">
+      <c r="AA130" s="33">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="131" spans="27:27">
+      <c r="AA131" s="33">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="132" spans="27:27">
+      <c r="AA132" s="33">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="133" spans="27:27">
+      <c r="AA133" s="33">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="134" spans="27:27">
+      <c r="AA134" s="33">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="135" spans="27:27">
+      <c r="AA135" s="33">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="136" spans="27:27">
+      <c r="AA136" s="33">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="137" spans="27:27">
+      <c r="AA137" s="33">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="138" spans="27:27">
+      <c r="AA138" s="33">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="139" spans="27:27">
+      <c r="AA139" s="33">
+        <v>43282</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/内閣支持率.xlsx
+++ b/Excel/内閣支持率.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A80DE0-A068-45C4-BC22-E0E939031547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0442C1E-B2FE-4460-A72E-C5FC758C890D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9105" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="9105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="内閣支持率・" sheetId="3" r:id="rId5"/>
     <sheet name="メモ帳" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1376,9 +1376,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="179" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="185" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-m\-d"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1578,11 +1578,11 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1590,7 +1590,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13723,7 +13723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C885BAC-55F4-4E05-AB4D-BB68BBE0B63B}">
   <dimension ref="A1:AA139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -16071,8 +16071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2867192-2AD2-45D4-A5D8-44F12C176909}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
